--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgarl\Documents\EMMA-internal\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cornelis\Documents\Hertie\EMMA\Programm\EMMA-internal\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C0EF5C-0C0F-4236-BE2B-E6537FEBDF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505BFEA3-845C-4AB7-BA9C-946A07724C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46524" yWindow="-1272" windowWidth="14400" windowHeight="7356" tabRatio="733" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="44" r:id="rId1"/>
@@ -826,17 +826,6 @@
     <t>€/MWh</t>
   </si>
   <si>
-    <t xml:space="preserve">Info
-GAS PRICES
-- Monthly $ per MMBtu market prices from IMF Community data portal (German Border Prices) https://www.imf.org/en/Research/commodity-prices (Data: "Downoad the data", Description of Var.: "By commoditiy, in terms of US$, market prices")
-- Average of monthly values, multiplied by 3.4092 to get $ per MWh prices, converted results to € 
-COAL PRICES
-- Yearly values from Quandl (Northwest Europe Marker Price) https://www.quandl.com/data/BP/COAL_PRICES-Coal-Prices
-- Converted to €, converted data from €/Metric ton to €/ MWh by dividing values by 8.141 (1 tonne of oil equivalent = 8.141MWh)
-EXCHANGE RATE: https://www.xe.com/currencyconverter/convert/?Amount=1&amp;From=USD&amp;To=EUR (0.9194 EUR/USD on 08.04.2020)
-</t>
-  </si>
-  <si>
     <t>FLH for mid- and long-term scenarios</t>
   </si>
   <si>
@@ -1263,15 +1252,27 @@
   <si>
     <t>CO2 Emissions in Mt/year - Aggregation is used to cap emissions if --CARBONCAP=1</t>
   </si>
+  <si>
+    <t xml:space="preserve">Info
+For 2015,2030,2050 gas and coal prices are taken from https://heatroadmap.eu/wp-content/uploads/2020/01/HRE_D6.1_Appendix_1.xlsx (based on lower heating value)
+GAS PRICES
+- Monthly $ per MMBtu market prices from IMF Community data portal (German Border Prices) https://www.imf.org/en/Research/commodity-prices (Data: "Downoad the data", Description of Var.: "By commoditiy, in terms of US$, market prices")
+- Average of monthly values, multiplied by 3.4092 to get $ per MWh prices, converted results to € 
+COAL PRICES
+- Yearly values from Quandl (Northwest Europe Marker Price) https://www.quandl.com/data/BP/COAL_PRICES-Coal-Prices
+- Converted to €, converted data from €/Metric ton to €/ MWh by dividing values by 8.141 (1 tonne of oil equivalent = 8.141MWh)
+EXCHANGE RATE: https://www.xe.com/currencyconverter/convert/?Amount=1&amp;From=USD&amp;To=EUR (0.9194 EUR/USD on 08.04.2020)
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="54" x14ac:knownFonts="1">
     <font>
@@ -2770,7 +2771,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -2794,7 +2795,7 @@
     <xf numFmtId="9" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -2918,7 +2919,7 @@
     <xf numFmtId="1" fontId="27" fillId="34" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="34" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="34" fillId="34" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="12" fillId="34" borderId="0" xfId="56" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="34" borderId="0" xfId="56" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="28" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="29" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="27" fillId="35" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2995,8 +2996,8 @@
     <xf numFmtId="0" fontId="36" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3037,8 +3038,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="36" borderId="36" xfId="56" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="36" borderId="35" xfId="56" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="36" borderId="36" xfId="56" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="36" borderId="35" xfId="56" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="33" borderId="29" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3089,7 +3090,7 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="39" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="39" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="27" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="34" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
@@ -3114,15 +3115,15 @@
     <xf numFmtId="0" fontId="40" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="47" fillId="36" borderId="29" xfId="67" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="27" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="27" fillId="36" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="27" fillId="36" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="39" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="39" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="47" fillId="36" borderId="0" xfId="67" applyFill="1"/>
-    <xf numFmtId="165" fontId="27" fillId="39" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="39" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="30" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="27" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3148,7 +3149,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="36" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="34" fillId="36" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="34" fillId="36" borderId="34" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="36" borderId="29" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="34" fillId="36" borderId="36" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3390,7 +3391,7 @@
     <xf numFmtId="2" fontId="27" fillId="35" borderId="67" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="65" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="65" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="36" borderId="33" xfId="66" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3412,7 +3413,7 @@
     <xf numFmtId="1" fontId="27" fillId="35" borderId="67" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="68" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="68" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="36" borderId="0" xfId="66" applyFont="1" applyFill="1"/>
@@ -3453,7 +3454,7 @@
     <xf numFmtId="1" fontId="46" fillId="35" borderId="67" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="46" fillId="35" borderId="68" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="46" fillId="35" borderId="68" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="37" borderId="30" xfId="56" applyFill="1" applyBorder="1"/>
@@ -3479,7 +3480,7 @@
     <xf numFmtId="9" fontId="27" fillId="41" borderId="70" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="70" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="70" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="37" borderId="32" xfId="56" applyFill="1" applyBorder="1"/>
@@ -3508,7 +3509,7 @@
     <xf numFmtId="9" fontId="27" fillId="41" borderId="73" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="73" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="73" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="40" fillId="35" borderId="63" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3526,7 +3527,7 @@
     <xf numFmtId="9" fontId="40" fillId="41" borderId="68" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="40" fillId="35" borderId="68" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="35" borderId="68" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="40" fillId="35" borderId="69" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3547,7 +3548,7 @@
     <xf numFmtId="9" fontId="40" fillId="41" borderId="70" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="40" fillId="35" borderId="70" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="35" borderId="70" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="75" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3569,7 +3570,7 @@
     <xf numFmtId="9" fontId="27" fillId="41" borderId="77" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="77" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="77" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="34" fillId="34" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3612,8 +3613,8 @@
     <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="56" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="36" borderId="0" xfId="56" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="36" borderId="0" xfId="56" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="36" borderId="0" xfId="56" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="36" borderId="0" xfId="56" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="44" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3632,100 +3633,100 @@
     <xf numFmtId="9" fontId="27" fillId="35" borderId="76" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="64" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="64" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="41" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="41" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="41" borderId="65" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="41" borderId="65" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="63" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="63" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="41" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="41" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="41" borderId="68" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="41" borderId="68" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="46" fillId="35" borderId="63" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="46" fillId="35" borderId="63" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="46" fillId="35" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="46" fillId="35" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="46" fillId="41" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="46" fillId="41" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="46" fillId="41" borderId="68" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="46" fillId="41" borderId="68" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="69" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="69" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="41" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="41" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="41" borderId="70" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="41" borderId="70" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="72" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="72" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="37" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="37" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="41" borderId="37" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="41" borderId="37" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="41" borderId="73" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="41" borderId="73" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="40" fillId="35" borderId="63" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="35" borderId="63" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="40" fillId="35" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="35" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="40" fillId="41" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="41" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="40" fillId="41" borderId="68" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="41" borderId="68" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="40" fillId="35" borderId="69" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="35" borderId="69" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="40" fillId="35" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="35" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="40" fillId="41" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="41" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="40" fillId="41" borderId="70" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="41" borderId="70" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="75" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="75" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="76" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="76" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="41" borderId="76" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="41" borderId="76" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="41" borderId="77" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="41" borderId="77" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="78" xfId="56" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3943,21 +3944,6 @@
     <xf numFmtId="0" fontId="27" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4006,13 +3992,10 @@
     <xf numFmtId="0" fontId="6" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4021,8 +4004,26 @@
     <xf numFmtId="0" fontId="9" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="72">
@@ -4068,36 +4069,36 @@
     <cellStyle name="Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Ausgabe" xfId="53" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="54" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Berechnung" xfId="44" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Bold GHG Numbers (0.00)" xfId="43" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Calculation" xfId="44" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="65" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Eingabe" xfId="48" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="57" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="46" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Euro" xfId="45" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="Euro 2" xfId="69" xr:uid="{E0F74355-8A5D-42AB-84A7-9BFCEC3032A0}"/>
-    <cellStyle name="Explanatory Text" xfId="46" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="47" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="Heading 1" xfId="59" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="Heading 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="Heading 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
     <cellStyle name="Heading 4" xfId="62" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8"/>
-    <cellStyle name="Input" xfId="48" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8"/>
     <cellStyle name="Linked Cell" xfId="63" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
     <cellStyle name="Neutral" xfId="49" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
     <cellStyle name="Normalny_PL_AssumptionLPP2010_hz17.03" xfId="51" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="Note" xfId="52" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Output" xfId="53" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="66" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="66" builtinId="5"/>
     <cellStyle name="Prozent 2" xfId="71" xr:uid="{ED3E6BEB-5DEB-47FF-9D54-FC47EA7B59F4}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="55" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
     <cellStyle name="Standard 2 2" xfId="70" xr:uid="{F3C26EB6-E410-46AB-88A3-FED802EED680}"/>
     <cellStyle name="Standard 3" xfId="68" xr:uid="{A5026D75-5770-4FA0-8B25-A39438653098}"/>
     <cellStyle name="Standard_data" xfId="56" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
     <cellStyle name="Title" xfId="58" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Total" xfId="57" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="64" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="64" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -4293,7 +4294,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4707,7 +4708,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5139,7 +5140,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5641,7 +5642,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5994,7 +5995,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6347,7 +6348,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6703,7 +6704,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11200,7 +11201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11525,120 +11526,120 @@
   </sheetPr>
   <dimension ref="B1:CW49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="AF4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF18" sqref="AF18"/>
+      <selection pane="bottomRight" activeCell="AS4" sqref="AS4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.53515625" style="84" customWidth="1"/>
-    <col min="2" max="2" width="11.23046875" style="84"/>
+    <col min="1" max="1" width="1.54296875" style="84" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" style="84"/>
     <col min="3" max="3" width="13" style="84" customWidth="1"/>
-    <col min="4" max="8" width="7.69140625" style="84" customWidth="1"/>
-    <col min="9" max="9" width="14.69140625" style="84" customWidth="1"/>
-    <col min="10" max="14" width="7.69140625" style="84" customWidth="1"/>
-    <col min="15" max="15" width="14.69140625" style="84" customWidth="1"/>
-    <col min="16" max="25" width="7.69140625" style="84" customWidth="1"/>
-    <col min="26" max="27" width="14.69140625" style="84" customWidth="1"/>
-    <col min="28" max="32" width="7.69140625" style="84" customWidth="1"/>
-    <col min="33" max="38" width="14.69140625" style="84" customWidth="1"/>
-    <col min="39" max="43" width="1.53515625" style="84" customWidth="1"/>
-    <col min="44" max="44" width="18.53515625" style="84" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="7.7265625" style="84" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" style="84" customWidth="1"/>
+    <col min="10" max="14" width="7.7265625" style="84" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" style="84" customWidth="1"/>
+    <col min="16" max="25" width="7.7265625" style="84" customWidth="1"/>
+    <col min="26" max="27" width="14.7265625" style="84" customWidth="1"/>
+    <col min="28" max="32" width="7.7265625" style="84" customWidth="1"/>
+    <col min="33" max="38" width="14.7265625" style="84" customWidth="1"/>
+    <col min="39" max="43" width="1.54296875" style="84" customWidth="1"/>
+    <col min="44" max="44" width="18.54296875" style="84" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="10" style="84" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="8.53515625" style="84" customWidth="1"/>
-    <col min="48" max="48" width="18.53515625" style="84" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18.53515625" style="84" customWidth="1"/>
-    <col min="50" max="50" width="15.23046875" style="84" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="8.54296875" style="84" customWidth="1"/>
+    <col min="48" max="48" width="18.54296875" style="84" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.54296875" style="84" customWidth="1"/>
+    <col min="50" max="50" width="15.26953125" style="84" bestFit="1" customWidth="1"/>
     <col min="51" max="52" width="11" style="84" customWidth="1"/>
-    <col min="53" max="53" width="20.23046875" style="84" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.53515625" style="84" customWidth="1"/>
-    <col min="55" max="55" width="19.23046875" style="84" customWidth="1"/>
-    <col min="56" max="56" width="11.53515625" style="84" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="1.53515625" style="84" customWidth="1"/>
-    <col min="58" max="58" width="9.23046875" style="84" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.23046875" style="84" customWidth="1"/>
-    <col min="60" max="60" width="8.53515625" style="84" customWidth="1"/>
-    <col min="61" max="61" width="7.53515625" style="84" customWidth="1"/>
-    <col min="62" max="68" width="6.23046875" style="84" customWidth="1"/>
-    <col min="69" max="69" width="6.69140625" style="84" customWidth="1"/>
-    <col min="70" max="79" width="6.23046875" style="84" customWidth="1"/>
-    <col min="80" max="80" width="9.23046875" style="84" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.53515625" style="84" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20.26953125" style="84" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.54296875" style="84" customWidth="1"/>
+    <col min="55" max="55" width="19.26953125" style="84" customWidth="1"/>
+    <col min="56" max="56" width="11.54296875" style="84" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="1.54296875" style="84" customWidth="1"/>
+    <col min="58" max="58" width="9.26953125" style="84" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.26953125" style="84" customWidth="1"/>
+    <col min="60" max="60" width="8.54296875" style="84" customWidth="1"/>
+    <col min="61" max="61" width="7.54296875" style="84" customWidth="1"/>
+    <col min="62" max="68" width="6.26953125" style="84" customWidth="1"/>
+    <col min="69" max="69" width="6.7265625" style="84" customWidth="1"/>
+    <col min="70" max="79" width="6.26953125" style="84" customWidth="1"/>
+    <col min="80" max="80" width="9.26953125" style="84" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.54296875" style="84" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="6" style="84" bestFit="1" customWidth="1"/>
     <col min="83" max="99" width="5" style="84" bestFit="1" customWidth="1"/>
-    <col min="100" max="16384" width="11.23046875" style="84"/>
+    <col min="100" max="16384" width="11.26953125" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:100" s="80" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:100" s="80" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="325"/>
       <c r="C1" s="326"/>
       <c r="D1" s="510" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E1" s="511"/>
       <c r="F1" s="511"/>
       <c r="G1" s="512"/>
       <c r="H1" s="506"/>
       <c r="I1" s="326" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J1" s="510" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K1" s="511"/>
       <c r="L1" s="511"/>
       <c r="M1" s="512"/>
       <c r="N1" s="506"/>
       <c r="O1" s="326" t="s">
+        <v>273</v>
+      </c>
+      <c r="P1" s="510" t="s">
         <v>274</v>
-      </c>
-      <c r="P1" s="510" t="s">
-        <v>275</v>
       </c>
       <c r="Q1" s="511"/>
       <c r="R1" s="511"/>
       <c r="S1" s="512"/>
       <c r="T1" s="505"/>
       <c r="U1" s="510" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V1" s="511"/>
       <c r="W1" s="511"/>
       <c r="X1" s="512"/>
       <c r="Y1" s="506"/>
       <c r="Z1" s="326" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA1" s="326" t="s">
         <v>277</v>
       </c>
-      <c r="AA1" s="326" t="s">
+      <c r="AB1" s="510" t="s">
         <v>278</v>
-      </c>
-      <c r="AB1" s="510" t="s">
-        <v>279</v>
       </c>
       <c r="AC1" s="511"/>
       <c r="AD1" s="511"/>
       <c r="AE1" s="512"/>
       <c r="AF1" s="506"/>
       <c r="AG1" s="326" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AH1" s="326" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI1" s="326" t="s">
         <v>280</v>
       </c>
-      <c r="AI1" s="326" t="s">
+      <c r="AJ1" s="326" t="s">
         <v>281</v>
       </c>
-      <c r="AJ1" s="326" t="s">
+      <c r="AK1" s="326" t="s">
         <v>282</v>
       </c>
-      <c r="AK1" s="326" t="s">
+      <c r="AL1" s="327" t="s">
         <v>283</v>
-      </c>
-      <c r="AL1" s="327" t="s">
-        <v>284</v>
       </c>
       <c r="AP1" s="81"/>
       <c r="AQ1" s="81"/>
@@ -11749,9 +11750,9 @@
       </c>
       <c r="CV1" s="82"/>
     </row>
-    <row r="2" spans="2:100" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:100" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="328" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" s="329"/>
       <c r="D2" s="330">
@@ -11771,7 +11772,7 @@
         <v>199</v>
       </c>
       <c r="I2" s="332" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J2" s="330">
         <v>2016</v>
@@ -11790,7 +11791,7 @@
         <v>199</v>
       </c>
       <c r="O2" s="332" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P2" s="330">
         <v>2016</v>
@@ -11825,10 +11826,10 @@
         <v>199</v>
       </c>
       <c r="Z2" s="332" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA2" s="332" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB2" s="330">
         <v>2016</v>
@@ -11847,22 +11848,22 @@
         <v>199</v>
       </c>
       <c r="AG2" s="332" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH2" s="332" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AI2" s="332" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AJ2" s="332" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AK2" s="332" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AL2" s="332" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AP2" s="95"/>
       <c r="AQ2" s="95"/>
@@ -11907,9 +11908,9 @@
       <c r="CA2" s="108"/>
       <c r="CV2" s="82"/>
     </row>
-    <row r="3" spans="2:100" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:100" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="328" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C3" s="334"/>
       <c r="D3" s="330" t="s">
@@ -12005,7 +12006,7 @@
         <v>125</v>
       </c>
       <c r="AG3" s="332" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AH3" s="332" t="s">
         <v>15</v>
@@ -12065,7 +12066,7 @@
       <c r="CA3" s="108"/>
       <c r="CV3" s="82"/>
     </row>
-    <row r="4" spans="2:100" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:100" x14ac:dyDescent="0.35">
       <c r="B4" s="336" t="s">
         <v>191</v>
       </c>
@@ -12305,7 +12306,7 @@
       </c>
       <c r="CV4" s="85"/>
     </row>
-    <row r="5" spans="2:100" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:100" x14ac:dyDescent="0.35">
       <c r="B5" s="336"/>
       <c r="C5" s="337" t="s">
         <v>52</v>
@@ -12543,7 +12544,7 @@
       </c>
       <c r="CV5" s="85"/>
     </row>
-    <row r="6" spans="2:100" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:100" x14ac:dyDescent="0.35">
       <c r="B6" s="336"/>
       <c r="C6" s="337" t="s">
         <v>53</v>
@@ -12654,7 +12655,7 @@
       </c>
       <c r="AS6" s="98">
         <f>VLOOKUP($C6,fuel!$A$2:$R$15,16,FALSE)</f>
-        <v>11.870445503292055</v>
+        <v>9.2008747325610205</v>
       </c>
       <c r="AT6" s="98">
         <f t="shared" si="0"/>
@@ -12688,11 +12689,11 @@
       </c>
       <c r="BC6" s="98">
         <f t="shared" si="5"/>
-        <v>29.305316311504466</v>
+        <v>23.501901592523957</v>
       </c>
       <c r="BD6" s="99">
         <f t="shared" si="6"/>
-        <v>25.305316311504466</v>
+        <v>19.501901592523957</v>
       </c>
       <c r="BF6" s="101" t="str">
         <f>C6</f>
@@ -12781,7 +12782,7 @@
       </c>
       <c r="CV6" s="85"/>
     </row>
-    <row r="7" spans="2:100" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:100" x14ac:dyDescent="0.35">
       <c r="B7" s="336"/>
       <c r="C7" s="337" t="s">
         <v>54</v>
@@ -12892,7 +12893,7 @@
       </c>
       <c r="AS7" s="98">
         <f>VLOOKUP($C7,fuel!$A$2:$R$15,16,FALSE)</f>
-        <v>23.26</v>
+        <v>36.473581047078497</v>
       </c>
       <c r="AT7" s="98">
         <f t="shared" si="0"/>
@@ -12926,11 +12927,11 @@
       </c>
       <c r="BC7" s="98">
         <f t="shared" si="5"/>
-        <v>40.131147540983612</v>
+        <v>61.792755814882781</v>
       </c>
       <c r="BD7" s="99">
         <f t="shared" si="6"/>
-        <v>40.131147540983612</v>
+        <v>61.792755814882781</v>
       </c>
       <c r="BF7" s="101" t="str">
         <f>C7</f>
@@ -13019,7 +13020,7 @@
       </c>
       <c r="CV7" s="85"/>
     </row>
-    <row r="8" spans="2:100" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:100" x14ac:dyDescent="0.35">
       <c r="B8" s="336"/>
       <c r="C8" s="337" t="s">
         <v>50</v>
@@ -13130,7 +13131,7 @@
       </c>
       <c r="AS8" s="98">
         <f>VLOOKUP($C8,fuel!$A$2:$R$15,16,FALSE)</f>
-        <v>23.26</v>
+        <v>36.473581047078497</v>
       </c>
       <c r="AT8" s="98">
         <f t="shared" si="0"/>
@@ -13164,11 +13165,11 @@
       </c>
       <c r="BC8" s="98">
         <f t="shared" si="5"/>
-        <v>61.641025641025642</v>
+        <v>95.522002684816655</v>
       </c>
       <c r="BD8" s="99">
         <f t="shared" si="6"/>
-        <v>61.641025641025642</v>
+        <v>95.522002684816655</v>
       </c>
       <c r="BF8" s="101" t="str">
         <f>C8</f>
@@ -13257,7 +13258,7 @@
       </c>
       <c r="CV8" s="85"/>
     </row>
-    <row r="9" spans="2:100" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:100" x14ac:dyDescent="0.35">
       <c r="B9" s="336"/>
       <c r="C9" s="337" t="str">
         <f>C5&amp;"_CCS"</f>
@@ -13436,7 +13437,7 @@
       <c r="CA9" s="99"/>
       <c r="CV9" s="85"/>
     </row>
-    <row r="10" spans="2:100" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:100" x14ac:dyDescent="0.35">
       <c r="B10" s="336"/>
       <c r="C10" s="337" t="str">
         <f>C6&amp;"_CCS"</f>
@@ -13551,7 +13552,7 @@
       <c r="AR10" s="356"/>
       <c r="AS10" s="98">
         <f>VLOOKUP($C10,fuel!$A$2:$R$15,16,FALSE)</f>
-        <v>11.870445503292055</v>
+        <v>9.2008747325610205</v>
       </c>
       <c r="AT10" s="98">
         <f t="shared" si="0"/>
@@ -13585,11 +13586,11 @@
       </c>
       <c r="BC10" s="98">
         <f t="shared" si="5"/>
-        <v>38.638014482347515</v>
+        <v>31.612828243581632</v>
       </c>
       <c r="BD10" s="99">
         <f t="shared" si="6"/>
-        <v>30.638014482347515</v>
+        <v>23.612828243581632</v>
       </c>
       <c r="BF10" s="101"/>
       <c r="BG10" s="111"/>
@@ -13615,7 +13616,7 @@
       <c r="CA10" s="99"/>
       <c r="CV10" s="85"/>
     </row>
-    <row r="11" spans="2:100" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:100" x14ac:dyDescent="0.35">
       <c r="B11" s="336"/>
       <c r="C11" s="337" t="str">
         <f>C7&amp;"_CCS"</f>
@@ -13730,7 +13731,7 @@
       <c r="AR11" s="356"/>
       <c r="AS11" s="98">
         <f>VLOOKUP($C11,fuel!$A$2:$R$15,16,FALSE)</f>
-        <v>23.26</v>
+        <v>36.473581047078497</v>
       </c>
       <c r="AT11" s="98">
         <f t="shared" si="0"/>
@@ -13764,11 +13765,11 @@
       </c>
       <c r="BC11" s="98">
         <f t="shared" si="5"/>
-        <v>53.46521739130435</v>
+        <v>82.190393580605431</v>
       </c>
       <c r="BD11" s="99">
         <f t="shared" si="6"/>
-        <v>49.46521739130435</v>
+        <v>78.190393580605431</v>
       </c>
       <c r="BF11" s="101"/>
       <c r="BG11" s="111"/>
@@ -13794,10 +13795,10 @@
       <c r="CA11" s="99"/>
       <c r="CV11" s="85"/>
     </row>
-    <row r="12" spans="2:100" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:100" x14ac:dyDescent="0.35">
       <c r="B12" s="336"/>
       <c r="C12" s="360" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D12" s="491">
         <f t="shared" si="9"/>
@@ -14033,10 +14034,10 @@
       </c>
       <c r="CV12" s="85"/>
     </row>
-    <row r="13" spans="2:100" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:100" x14ac:dyDescent="0.35">
       <c r="B13" s="336"/>
       <c r="C13" s="360" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D13" s="490">
         <f t="shared" si="9"/>
@@ -14272,7 +14273,7 @@
       </c>
       <c r="CV13" s="85"/>
     </row>
-    <row r="14" spans="2:100" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:100" x14ac:dyDescent="0.35">
       <c r="B14" s="336"/>
       <c r="C14" s="337" t="s">
         <v>55</v>
@@ -14508,7 +14509,7 @@
       </c>
       <c r="CV14" s="85"/>
     </row>
-    <row r="15" spans="2:100" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:100" x14ac:dyDescent="0.35">
       <c r="B15" s="336"/>
       <c r="C15" s="337" t="s">
         <v>203</v>
@@ -14677,7 +14678,7 @@
       <c r="CA15" s="112"/>
       <c r="CV15" s="85"/>
     </row>
-    <row r="16" spans="2:100" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:100" x14ac:dyDescent="0.35">
       <c r="B16" s="336"/>
       <c r="C16" s="337" t="s">
         <v>204</v>
@@ -14846,7 +14847,7 @@
       <c r="CA16" s="112"/>
       <c r="CV16" s="85"/>
     </row>
-    <row r="17" spans="2:101" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:101" x14ac:dyDescent="0.35">
       <c r="B17" s="371"/>
       <c r="C17" s="372" t="s">
         <v>20</v>
@@ -15018,12 +15019,12 @@
       <c r="CA17" s="112"/>
       <c r="CV17" s="85"/>
     </row>
-    <row r="18" spans="2:101" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:101" x14ac:dyDescent="0.35">
       <c r="B18" s="336" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C18" s="360" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D18" s="490">
         <f t="shared" si="9"/>
@@ -15254,7 +15255,7 @@
       </c>
       <c r="CV18" s="85"/>
     </row>
-    <row r="19" spans="2:101" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:101" x14ac:dyDescent="0.35">
       <c r="B19" s="381" t="s">
         <v>194</v>
       </c>
@@ -15424,7 +15425,7 @@
       <c r="CA19" s="112"/>
       <c r="CV19" s="85"/>
     </row>
-    <row r="20" spans="2:101" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:101" x14ac:dyDescent="0.35">
       <c r="B20" s="336" t="s">
         <v>192</v>
       </c>
@@ -15649,7 +15650,7 @@
       </c>
       <c r="CV20" s="85"/>
     </row>
-    <row r="21" spans="2:101" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:101" x14ac:dyDescent="0.35">
       <c r="B21" s="371" t="s">
         <v>195</v>
       </c>
@@ -15835,7 +15836,7 @@
       <c r="CA21" s="90"/>
       <c r="CV21" s="85"/>
     </row>
-    <row r="22" spans="2:101" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:101" x14ac:dyDescent="0.35">
       <c r="B22" s="336" t="s">
         <v>193</v>
       </c>
@@ -16054,7 +16055,7 @@
       <c r="CA22" s="90"/>
       <c r="CV22" s="85"/>
     </row>
-    <row r="23" spans="2:101" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:101" x14ac:dyDescent="0.35">
       <c r="B23" s="371"/>
       <c r="C23" s="405" t="s">
         <v>152</v>
@@ -16276,12 +16277,12 @@
       <c r="CA23" s="90"/>
       <c r="CV23" s="85"/>
     </row>
-    <row r="24" spans="2:101" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:101" x14ac:dyDescent="0.35">
       <c r="C24" s="145" t="s">
         <v>120</v>
       </c>
       <c r="U24" s="84" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM24" s="83"/>
       <c r="AN24" s="83"/>
@@ -16326,7 +16327,7 @@
       <c r="CB24" s="89"/>
       <c r="CV24" s="85"/>
     </row>
-    <row r="25" spans="2:101" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:101" x14ac:dyDescent="0.35">
       <c r="C25" s="145"/>
       <c r="AM25" s="83"/>
       <c r="AN25" s="83"/>
@@ -16369,7 +16370,7 @@
       <c r="CB25" s="89"/>
       <c r="CV25" s="85"/>
     </row>
-    <row r="26" spans="2:101" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:101" x14ac:dyDescent="0.35">
       <c r="C26" s="145"/>
       <c r="AM26" s="83"/>
       <c r="AN26" s="83"/>
@@ -16412,7 +16413,7 @@
       <c r="CB26" s="89"/>
       <c r="CV26" s="85"/>
     </row>
-    <row r="27" spans="2:101" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:101" x14ac:dyDescent="0.35">
       <c r="AT27" s="109">
         <v>265</v>
       </c>
@@ -16457,9 +16458,9 @@
       <c r="CV27" s="87"/>
       <c r="CW27" s="86"/>
     </row>
-    <row r="28" spans="2:101" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:101" x14ac:dyDescent="0.35">
       <c r="C28" s="122" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D28" s="275"/>
       <c r="E28" s="426"/>
@@ -16553,9 +16554,9 @@
       <c r="CU28" s="86"/>
       <c r="CV28" s="87"/>
     </row>
-    <row r="29" spans="2:101" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:101" x14ac:dyDescent="0.35">
       <c r="C29" s="93" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D29" s="274">
         <v>0.05</v>
@@ -16617,16 +16618,16 @@
       <c r="CU29" s="86"/>
       <c r="CV29" s="87"/>
     </row>
-    <row r="30" spans="2:101" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:101" x14ac:dyDescent="0.35">
       <c r="C30" s="93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D30" s="274">
         <v>0</v>
       </c>
       <c r="E30" s="274"/>
       <c r="F30" s="84" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P30" s="242" t="s">
         <v>53</v>
@@ -16684,7 +16685,7 @@
       <c r="CU30" s="86"/>
       <c r="CV30" s="87"/>
     </row>
-    <row r="31" spans="2:101" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:101" x14ac:dyDescent="0.35">
       <c r="C31" s="219"/>
       <c r="D31" s="277"/>
       <c r="E31" s="420"/>
@@ -16744,7 +16745,7 @@
       <c r="CU31" s="86"/>
       <c r="CV31" s="87"/>
     </row>
-    <row r="32" spans="2:101" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:101" x14ac:dyDescent="0.35">
       <c r="C32" s="109" t="s">
         <v>62</v>
       </c>
@@ -16753,7 +16754,7 @@
       </c>
       <c r="E32" s="419"/>
       <c r="F32" s="84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P32" s="242"/>
       <c r="Q32" s="243"/>
@@ -16800,7 +16801,7 @@
       <c r="CU32" s="86"/>
       <c r="CV32" s="87"/>
     </row>
-    <row r="33" spans="3:100" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:100" x14ac:dyDescent="0.35">
       <c r="C33" s="101" t="s">
         <v>136</v>
       </c>
@@ -16809,7 +16810,7 @@
       </c>
       <c r="E33" s="427"/>
       <c r="F33" s="84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P33" s="242"/>
       <c r="Q33" s="243"/>
@@ -16858,7 +16859,7 @@
       <c r="CU33" s="86"/>
       <c r="CV33" s="87"/>
     </row>
-    <row r="34" spans="3:100" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:100" x14ac:dyDescent="0.35">
       <c r="C34" s="120" t="s">
         <v>137</v>
       </c>
@@ -16867,7 +16868,7 @@
       </c>
       <c r="E34" s="428"/>
       <c r="F34" s="84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P34" s="242"/>
       <c r="Q34" s="243"/>
@@ -16913,7 +16914,7 @@
       <c r="CU34" s="86"/>
       <c r="CV34" s="87"/>
     </row>
-    <row r="35" spans="3:100" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:100" x14ac:dyDescent="0.35">
       <c r="P35" s="242"/>
       <c r="Q35" s="243"/>
       <c r="AJ35" s="244"/>
@@ -16938,50 +16939,50 @@
       <c r="BZ35" s="86"/>
       <c r="CA35" s="86"/>
     </row>
-    <row r="36" spans="3:100" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:100" x14ac:dyDescent="0.35">
       <c r="P36" s="242"/>
       <c r="Q36" s="243"/>
       <c r="AJ36" s="244"/>
     </row>
-    <row r="37" spans="3:100" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:100" x14ac:dyDescent="0.35">
       <c r="C37" s="234"/>
       <c r="P37" s="242"/>
       <c r="Q37" s="243"/>
       <c r="AJ37" s="244"/>
     </row>
-    <row r="38" spans="3:100" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:100" x14ac:dyDescent="0.35">
       <c r="C38" s="234"/>
       <c r="P38" s="242"/>
       <c r="Q38" s="243"/>
       <c r="AJ38" s="244"/>
     </row>
-    <row r="39" spans="3:100" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:100" x14ac:dyDescent="0.35">
       <c r="C39" s="234"/>
       <c r="P39" s="242"/>
       <c r="Q39" s="243"/>
       <c r="AJ39" s="244"/>
     </row>
-    <row r="40" spans="3:100" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:100" x14ac:dyDescent="0.35">
       <c r="P40" s="242"/>
       <c r="Q40" s="243"/>
       <c r="AJ40" s="244"/>
     </row>
-    <row r="41" spans="3:100" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:100" x14ac:dyDescent="0.35">
       <c r="P41" s="242"/>
       <c r="Q41" s="243"/>
       <c r="AJ41" s="244"/>
     </row>
-    <row r="42" spans="3:100" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:100" x14ac:dyDescent="0.35">
       <c r="P42" s="242"/>
       <c r="Q42" s="243"/>
       <c r="AJ42" s="244"/>
     </row>
-    <row r="43" spans="3:100" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:100" x14ac:dyDescent="0.35">
       <c r="P43" s="242"/>
       <c r="Q43" s="243"/>
       <c r="AJ43" s="244"/>
     </row>
-    <row r="44" spans="3:100" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:100" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P44" s="245" t="s">
         <v>208</v>
       </c>
@@ -16991,7 +16992,7 @@
       </c>
       <c r="AJ44" s="244"/>
     </row>
-    <row r="45" spans="3:100" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:100" x14ac:dyDescent="0.35">
       <c r="P45" s="246" t="s">
         <v>210</v>
       </c>
@@ -17018,7 +17019,7 @@
       <c r="AI45" s="247"/>
       <c r="AJ45" s="248"/>
     </row>
-    <row r="49" spans="21:21" x14ac:dyDescent="0.4">
+    <row r="49" spans="21:21" x14ac:dyDescent="0.35">
       <c r="U49" s="84" t="s">
         <v>197</v>
       </c>
@@ -17098,27 +17099,27 @@
       <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.53515625" customWidth="1"/>
-    <col min="4" max="9" width="7.23046875" customWidth="1"/>
-    <col min="11" max="16" width="7.23046875" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="9" width="7.26953125" customWidth="1"/>
+    <col min="11" max="16" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="568" t="s">
+    <row r="1" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="566" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="568"/>
-      <c r="C1" s="568"/>
-      <c r="D1" s="568"/>
-      <c r="E1" s="568"/>
-      <c r="F1" s="568"/>
-      <c r="G1" s="568"/>
-      <c r="H1" s="568"/>
-      <c r="I1" s="568"/>
-    </row>
-    <row r="2" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="566"/>
+      <c r="C1" s="566"/>
+      <c r="D1" s="566"/>
+      <c r="E1" s="566"/>
+      <c r="F1" s="566"/>
+      <c r="G1" s="566"/>
+      <c r="H1" s="566"/>
+      <c r="I1" s="566"/>
+    </row>
+    <row r="2" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -17160,11 +17161,11 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="560" t="s">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="555" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="542" t="s">
+      <c r="B3" s="567" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -17176,7 +17177,7 @@
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
       <c r="I3" s="34"/>
-      <c r="J3" s="565" t="s">
+      <c r="J3" s="558" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="44"/>
@@ -17186,9 +17187,9 @@
       <c r="O3" s="45"/>
       <c r="P3" s="46"/>
     </row>
-    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="561"/>
-      <c r="B4" s="543"/>
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="556"/>
+      <c r="B4" s="559"/>
       <c r="C4" s="35" t="s">
         <v>31</v>
       </c>
@@ -17198,7 +17199,7 @@
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
       <c r="I4" s="38"/>
-      <c r="J4" s="543"/>
+      <c r="J4" s="559"/>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
@@ -17206,9 +17207,9 @@
       <c r="O4" s="37"/>
       <c r="P4" s="38"/>
     </row>
-    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="561"/>
-      <c r="B5" s="543"/>
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="556"/>
+      <c r="B5" s="559"/>
       <c r="C5" s="35" t="s">
         <v>18</v>
       </c>
@@ -17218,7 +17219,7 @@
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="566"/>
+      <c r="J5" s="560"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
       <c r="M5" s="36"/>
@@ -17226,9 +17227,9 @@
       <c r="O5" s="37"/>
       <c r="P5" s="38"/>
     </row>
-    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="561"/>
-      <c r="B6" s="543"/>
+    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="556"/>
+      <c r="B6" s="559"/>
       <c r="C6" s="35" t="s">
         <v>19</v>
       </c>
@@ -17238,7 +17239,7 @@
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
       <c r="I6" s="38"/>
-      <c r="J6" s="566"/>
+      <c r="J6" s="560"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -17246,9 +17247,9 @@
       <c r="O6" s="37"/>
       <c r="P6" s="38"/>
     </row>
-    <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="561"/>
-      <c r="B7" s="543"/>
+    <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="556"/>
+      <c r="B7" s="559"/>
       <c r="C7" s="35" t="s">
         <v>20</v>
       </c>
@@ -17258,7 +17259,7 @@
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="38"/>
-      <c r="J7" s="566"/>
+      <c r="J7" s="560"/>
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
@@ -17266,9 +17267,9 @@
       <c r="O7" s="37"/>
       <c r="P7" s="38"/>
     </row>
-    <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="561"/>
-      <c r="B8" s="543"/>
+    <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="556"/>
+      <c r="B8" s="559"/>
       <c r="C8" s="35" t="s">
         <v>21</v>
       </c>
@@ -17278,7 +17279,7 @@
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="38"/>
-      <c r="J8" s="566"/>
+      <c r="J8" s="560"/>
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
@@ -17286,9 +17287,9 @@
       <c r="O8" s="37"/>
       <c r="P8" s="38"/>
     </row>
-    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="561"/>
-      <c r="B9" s="544"/>
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="556"/>
+      <c r="B9" s="568"/>
       <c r="C9" s="39" t="s">
         <v>22</v>
       </c>
@@ -17298,7 +17299,7 @@
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="42"/>
-      <c r="J9" s="567"/>
+      <c r="J9" s="561"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
@@ -17306,9 +17307,9 @@
       <c r="O9" s="41"/>
       <c r="P9" s="42"/>
     </row>
-    <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="561"/>
-      <c r="B10" s="545" t="s">
+    <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="556"/>
+      <c r="B10" s="562" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -17320,7 +17321,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="545" t="s">
+      <c r="J10" s="562" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="8"/>
@@ -17330,9 +17331,9 @@
       <c r="O10" s="22"/>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="561"/>
-      <c r="B11" s="546"/>
+    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="556"/>
+      <c r="B11" s="563"/>
       <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
@@ -17342,7 +17343,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="546"/>
+      <c r="J11" s="563"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -17350,9 +17351,9 @@
       <c r="O11" s="22"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="561"/>
-      <c r="B12" s="546"/>
+    <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="556"/>
+      <c r="B12" s="563"/>
       <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
@@ -17362,7 +17363,7 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="546"/>
+      <c r="J12" s="563"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -17370,9 +17371,9 @@
       <c r="O12" s="22"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="561"/>
-      <c r="B13" s="546"/>
+    <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="556"/>
+      <c r="B13" s="563"/>
       <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
@@ -17382,7 +17383,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="546"/>
+      <c r="J13" s="563"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -17390,9 +17391,9 @@
       <c r="O13" s="22"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="561"/>
-      <c r="B14" s="546"/>
+    <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="556"/>
+      <c r="B14" s="563"/>
       <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
@@ -17402,7 +17403,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="546"/>
+      <c r="J14" s="563"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -17410,9 +17411,9 @@
       <c r="O14" s="22"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="561"/>
-      <c r="B15" s="546"/>
+    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="556"/>
+      <c r="B15" s="563"/>
       <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
@@ -17422,7 +17423,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="546"/>
+      <c r="J15" s="563"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -17430,9 +17431,9 @@
       <c r="O15" s="22"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="561"/>
-      <c r="B16" s="563" t="s">
+    <row r="16" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="556"/>
+      <c r="B16" s="564" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -17454,9 +17455,9 @@
       <c r="O16" s="50"/>
       <c r="P16" s="51"/>
     </row>
-    <row r="17" spans="1:16" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="561"/>
-      <c r="B17" s="564"/>
+    <row r="17" spans="1:16" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="556"/>
+      <c r="B17" s="565"/>
       <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
@@ -17474,9 +17475,9 @@
       <c r="O17" s="50"/>
       <c r="P17" s="51"/>
     </row>
-    <row r="18" spans="1:16" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="561"/>
-      <c r="B18" s="564"/>
+    <row r="18" spans="1:16" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="556"/>
+      <c r="B18" s="565"/>
       <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
@@ -17494,9 +17495,9 @@
       <c r="O18" s="50"/>
       <c r="P18" s="51"/>
     </row>
-    <row r="19" spans="1:16" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="561"/>
-      <c r="B19" s="564"/>
+    <row r="19" spans="1:16" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="556"/>
+      <c r="B19" s="565"/>
       <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
@@ -17514,9 +17515,9 @@
       <c r="O19" s="50"/>
       <c r="P19" s="51"/>
     </row>
-    <row r="20" spans="1:16" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="561"/>
-      <c r="B20" s="550" t="s">
+    <row r="20" spans="1:16" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="556"/>
+      <c r="B20" s="545" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="52" t="s">
@@ -17529,9 +17530,9 @@
       <c r="H20" s="53"/>
       <c r="I20" s="54"/>
     </row>
-    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="561"/>
-      <c r="B21" s="551"/>
+    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="556"/>
+      <c r="B21" s="546"/>
       <c r="C21" s="55" t="s">
         <v>31</v>
       </c>
@@ -17542,9 +17543,9 @@
       <c r="H21" s="56"/>
       <c r="I21" s="57"/>
     </row>
-    <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="561"/>
-      <c r="B22" s="552"/>
+    <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="556"/>
+      <c r="B22" s="547"/>
       <c r="C22" s="55" t="s">
         <v>18</v>
       </c>
@@ -17555,9 +17556,9 @@
       <c r="H22" s="56"/>
       <c r="I22" s="57"/>
     </row>
-    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="561"/>
-      <c r="B23" s="552"/>
+    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="556"/>
+      <c r="B23" s="547"/>
       <c r="C23" s="55" t="s">
         <v>19</v>
       </c>
@@ -17568,9 +17569,9 @@
       <c r="H23" s="56"/>
       <c r="I23" s="57"/>
     </row>
-    <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="561"/>
-      <c r="B24" s="552"/>
+    <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="556"/>
+      <c r="B24" s="547"/>
       <c r="C24" s="55" t="s">
         <v>20</v>
       </c>
@@ -17581,9 +17582,9 @@
       <c r="H24" s="56"/>
       <c r="I24" s="57"/>
     </row>
-    <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="561"/>
-      <c r="B25" s="552"/>
+    <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="556"/>
+      <c r="B25" s="547"/>
       <c r="C25" s="55" t="s">
         <v>21</v>
       </c>
@@ -17594,9 +17595,9 @@
       <c r="H25" s="56"/>
       <c r="I25" s="57"/>
     </row>
-    <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="561"/>
-      <c r="B26" s="553"/>
+    <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="556"/>
+      <c r="B26" s="548"/>
       <c r="C26" s="58" t="s">
         <v>22</v>
       </c>
@@ -17607,9 +17608,9 @@
       <c r="H26" s="59"/>
       <c r="I26" s="60"/>
     </row>
-    <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="561"/>
-      <c r="B27" s="554" t="s">
+    <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="556"/>
+      <c r="B27" s="549" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -17622,9 +17623,9 @@
       <c r="H27" s="16"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="561"/>
-      <c r="B28" s="555"/>
+    <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="556"/>
+      <c r="B28" s="550"/>
       <c r="C28" s="7" t="s">
         <v>36</v>
       </c>
@@ -17635,9 +17636,9 @@
       <c r="H28" s="16"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="561"/>
-      <c r="B29" s="555"/>
+    <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="556"/>
+      <c r="B29" s="550"/>
       <c r="C29" s="7" t="s">
         <v>37</v>
       </c>
@@ -17648,9 +17649,9 @@
       <c r="H29" s="16"/>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="561"/>
-      <c r="B30" s="555"/>
+    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="556"/>
+      <c r="B30" s="550"/>
       <c r="C30" s="7" t="s">
         <v>38</v>
       </c>
@@ -17661,9 +17662,9 @@
       <c r="H30" s="16"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="561"/>
-      <c r="B31" s="555"/>
+    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="556"/>
+      <c r="B31" s="550"/>
       <c r="C31" s="7" t="s">
         <v>39</v>
       </c>
@@ -17674,9 +17675,9 @@
       <c r="H31" s="16"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="562"/>
-      <c r="B32" s="555"/>
+    <row r="32" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="557"/>
+      <c r="B32" s="550"/>
       <c r="C32" s="7" t="s">
         <v>40</v>
       </c>
@@ -17687,11 +17688,11 @@
       <c r="H32" s="16"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="547" t="s">
+    <row r="33" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="542" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="556" t="s">
+      <c r="B33" s="551" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="61" t="s">
@@ -17704,9 +17705,9 @@
       <c r="H33" s="62"/>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="548"/>
-      <c r="B34" s="551"/>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="543"/>
+      <c r="B34" s="546"/>
       <c r="C34" s="55" t="s">
         <v>31</v>
       </c>
@@ -17717,9 +17718,9 @@
       <c r="H34" s="56"/>
       <c r="I34" s="57"/>
     </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="548"/>
-      <c r="B35" s="551"/>
+    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="543"/>
+      <c r="B35" s="546"/>
       <c r="C35" s="55" t="s">
         <v>18</v>
       </c>
@@ -17730,9 +17731,9 @@
       <c r="H35" s="56"/>
       <c r="I35" s="57"/>
     </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="548"/>
-      <c r="B36" s="551"/>
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="543"/>
+      <c r="B36" s="546"/>
       <c r="C36" s="55" t="s">
         <v>19</v>
       </c>
@@ -17743,9 +17744,9 @@
       <c r="H36" s="56"/>
       <c r="I36" s="57"/>
     </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="548"/>
-      <c r="B37" s="551"/>
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="543"/>
+      <c r="B37" s="546"/>
       <c r="C37" s="55" t="s">
         <v>20</v>
       </c>
@@ -17756,9 +17757,9 @@
       <c r="H37" s="56"/>
       <c r="I37" s="57"/>
     </row>
-    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="548"/>
-      <c r="B38" s="551"/>
+    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="543"/>
+      <c r="B38" s="546"/>
       <c r="C38" s="55" t="s">
         <v>21</v>
       </c>
@@ -17769,9 +17770,9 @@
       <c r="H38" s="56"/>
       <c r="I38" s="57"/>
     </row>
-    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="548"/>
-      <c r="B39" s="557"/>
+    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="543"/>
+      <c r="B39" s="552"/>
       <c r="C39" s="58" t="s">
         <v>22</v>
       </c>
@@ -17782,9 +17783,9 @@
       <c r="H39" s="59"/>
       <c r="I39" s="60"/>
     </row>
-    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="548"/>
-      <c r="B40" s="554" t="s">
+    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="543"/>
+      <c r="B40" s="549" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -17797,9 +17798,9 @@
       <c r="H40" s="16"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="548"/>
-      <c r="B41" s="555"/>
+    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="543"/>
+      <c r="B41" s="550"/>
       <c r="C41" s="7" t="s">
         <v>36</v>
       </c>
@@ -17810,9 +17811,9 @@
       <c r="H41" s="16"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="548"/>
-      <c r="B42" s="555"/>
+    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="543"/>
+      <c r="B42" s="550"/>
       <c r="C42" s="7" t="s">
         <v>37</v>
       </c>
@@ -17823,9 +17824,9 @@
       <c r="H42" s="16"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="548"/>
-      <c r="B43" s="555"/>
+    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="543"/>
+      <c r="B43" s="550"/>
       <c r="C43" s="7" t="s">
         <v>38</v>
       </c>
@@ -17836,9 +17837,9 @@
       <c r="H43" s="16"/>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="548"/>
-      <c r="B44" s="555"/>
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="543"/>
+      <c r="B44" s="550"/>
       <c r="C44" s="7" t="s">
         <v>39</v>
       </c>
@@ -17849,9 +17850,9 @@
       <c r="H44" s="16"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="548"/>
-      <c r="B45" s="555"/>
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="543"/>
+      <c r="B45" s="550"/>
       <c r="C45" s="7" t="s">
         <v>40</v>
       </c>
@@ -17862,9 +17863,9 @@
       <c r="H45" s="16"/>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="548"/>
-      <c r="B46" s="558" t="s">
+    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="543"/>
+      <c r="B46" s="553" t="s">
         <v>28</v>
       </c>
       <c r="C46" s="18" t="s">
@@ -17877,9 +17878,9 @@
       <c r="H46" s="18"/>
       <c r="I46" s="19"/>
     </row>
-    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="548"/>
-      <c r="B47" s="559"/>
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="543"/>
+      <c r="B47" s="554"/>
       <c r="C47" s="6" t="s">
         <v>24</v>
       </c>
@@ -17890,9 +17891,9 @@
       <c r="H47" s="20"/>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="548"/>
-      <c r="B48" s="559"/>
+    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="543"/>
+      <c r="B48" s="554"/>
       <c r="C48" s="6" t="s">
         <v>25</v>
       </c>
@@ -17903,9 +17904,9 @@
       <c r="H48" s="20"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="548"/>
-      <c r="B49" s="559"/>
+    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="543"/>
+      <c r="B49" s="554"/>
       <c r="C49" s="6" t="s">
         <v>27</v>
       </c>
@@ -17916,8 +17917,8 @@
       <c r="H49" s="20"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="548"/>
+    <row r="50" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="543"/>
       <c r="B50" s="64" t="s">
         <v>32</v>
       </c>
@@ -17931,9 +17932,9 @@
       <c r="H50" s="66"/>
       <c r="I50" s="67"/>
     </row>
-    <row r="51" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="548"/>
-      <c r="B51" s="565" t="s">
+    <row r="51" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="543"/>
+      <c r="B51" s="558" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="43" t="s">
@@ -17946,9 +17947,9 @@
       <c r="H51" s="45"/>
       <c r="I51" s="46"/>
     </row>
-    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="548"/>
-      <c r="B52" s="543"/>
+    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="543"/>
+      <c r="B52" s="559"/>
       <c r="C52" s="35" t="s">
         <v>31</v>
       </c>
@@ -17959,9 +17960,9 @@
       <c r="H52" s="37"/>
       <c r="I52" s="38"/>
     </row>
-    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="548"/>
-      <c r="B53" s="566"/>
+    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="543"/>
+      <c r="B53" s="560"/>
       <c r="C53" s="35" t="s">
         <v>18</v>
       </c>
@@ -17972,9 +17973,9 @@
       <c r="H53" s="37"/>
       <c r="I53" s="38"/>
     </row>
-    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="548"/>
-      <c r="B54" s="566"/>
+    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="543"/>
+      <c r="B54" s="560"/>
       <c r="C54" s="35" t="s">
         <v>19</v>
       </c>
@@ -17985,9 +17986,9 @@
       <c r="H54" s="37"/>
       <c r="I54" s="38"/>
     </row>
-    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="548"/>
-      <c r="B55" s="566"/>
+    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="543"/>
+      <c r="B55" s="560"/>
       <c r="C55" s="35" t="s">
         <v>20</v>
       </c>
@@ -17998,9 +17999,9 @@
       <c r="H55" s="37"/>
       <c r="I55" s="38"/>
     </row>
-    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="548"/>
-      <c r="B56" s="566"/>
+    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="543"/>
+      <c r="B56" s="560"/>
       <c r="C56" s="35" t="s">
         <v>21</v>
       </c>
@@ -18011,9 +18012,9 @@
       <c r="H56" s="37"/>
       <c r="I56" s="38"/>
     </row>
-    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="548"/>
-      <c r="B57" s="567"/>
+    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="543"/>
+      <c r="B57" s="561"/>
       <c r="C57" s="39" t="s">
         <v>22</v>
       </c>
@@ -18024,9 +18025,9 @@
       <c r="H57" s="41"/>
       <c r="I57" s="42"/>
     </row>
-    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="548"/>
-      <c r="B58" s="545" t="s">
+    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="543"/>
+      <c r="B58" s="562" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -18039,9 +18040,9 @@
       <c r="H58" s="22"/>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="548"/>
-      <c r="B59" s="546"/>
+    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="543"/>
+      <c r="B59" s="563"/>
       <c r="C59" s="4" t="s">
         <v>36</v>
       </c>
@@ -18052,9 +18053,9 @@
       <c r="H59" s="22"/>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="548"/>
-      <c r="B60" s="546"/>
+    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="543"/>
+      <c r="B60" s="563"/>
       <c r="C60" s="4" t="s">
         <v>37</v>
       </c>
@@ -18065,9 +18066,9 @@
       <c r="H60" s="22"/>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="548"/>
-      <c r="B61" s="546"/>
+    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="543"/>
+      <c r="B61" s="563"/>
       <c r="C61" s="4" t="s">
         <v>38</v>
       </c>
@@ -18078,9 +18079,9 @@
       <c r="H61" s="22"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="548"/>
-      <c r="B62" s="546"/>
+    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="543"/>
+      <c r="B62" s="563"/>
       <c r="C62" s="4" t="s">
         <v>39</v>
       </c>
@@ -18091,9 +18092,9 @@
       <c r="H62" s="22"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="549"/>
-      <c r="B63" s="546"/>
+    <row r="63" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="544"/>
+      <c r="B63" s="563"/>
       <c r="C63" s="4" t="s">
         <v>40</v>
       </c>
@@ -18104,11 +18105,11 @@
       <c r="H63" s="22"/>
       <c r="I63" s="10"/>
     </row>
-    <row r="64" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="560" t="s">
+    <row r="64" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="555" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="542" t="s">
+      <c r="B64" s="567" t="s">
         <v>23</v>
       </c>
       <c r="C64" s="31" t="s">
@@ -18121,9 +18122,9 @@
       <c r="H64" s="33"/>
       <c r="I64" s="34"/>
     </row>
-    <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="561"/>
-      <c r="B65" s="543"/>
+    <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="556"/>
+      <c r="B65" s="559"/>
       <c r="C65" s="35" t="s">
         <v>31</v>
       </c>
@@ -18134,9 +18135,9 @@
       <c r="H65" s="37"/>
       <c r="I65" s="38"/>
     </row>
-    <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="561"/>
-      <c r="B66" s="543"/>
+    <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="556"/>
+      <c r="B66" s="559"/>
       <c r="C66" s="35" t="s">
         <v>18</v>
       </c>
@@ -18147,9 +18148,9 @@
       <c r="H66" s="37"/>
       <c r="I66" s="38"/>
     </row>
-    <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="561"/>
-      <c r="B67" s="543"/>
+    <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="556"/>
+      <c r="B67" s="559"/>
       <c r="C67" s="35" t="s">
         <v>19</v>
       </c>
@@ -18160,9 +18161,9 @@
       <c r="H67" s="37"/>
       <c r="I67" s="38"/>
     </row>
-    <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="561"/>
-      <c r="B68" s="543"/>
+    <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="556"/>
+      <c r="B68" s="559"/>
       <c r="C68" s="35" t="s">
         <v>20</v>
       </c>
@@ -18173,9 +18174,9 @@
       <c r="H68" s="37"/>
       <c r="I68" s="38"/>
     </row>
-    <row r="69" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="561"/>
-      <c r="B69" s="543"/>
+    <row r="69" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="556"/>
+      <c r="B69" s="559"/>
       <c r="C69" s="35" t="s">
         <v>21</v>
       </c>
@@ -18186,9 +18187,9 @@
       <c r="H69" s="37"/>
       <c r="I69" s="38"/>
     </row>
-    <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="561"/>
-      <c r="B70" s="544"/>
+    <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="556"/>
+      <c r="B70" s="568"/>
       <c r="C70" s="39" t="s">
         <v>22</v>
       </c>
@@ -18199,9 +18200,9 @@
       <c r="H70" s="41"/>
       <c r="I70" s="42"/>
     </row>
-    <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="561"/>
-      <c r="B71" s="545" t="s">
+    <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="556"/>
+      <c r="B71" s="562" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -18214,9 +18215,9 @@
       <c r="H71" s="22"/>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="561"/>
-      <c r="B72" s="546"/>
+    <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="556"/>
+      <c r="B72" s="563"/>
       <c r="C72" s="4" t="s">
         <v>36</v>
       </c>
@@ -18227,9 +18228,9 @@
       <c r="H72" s="22"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="561"/>
-      <c r="B73" s="546"/>
+    <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="556"/>
+      <c r="B73" s="563"/>
       <c r="C73" s="4" t="s">
         <v>37</v>
       </c>
@@ -18240,9 +18241,9 @@
       <c r="H73" s="22"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="561"/>
-      <c r="B74" s="546"/>
+    <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="556"/>
+      <c r="B74" s="563"/>
       <c r="C74" s="4" t="s">
         <v>38</v>
       </c>
@@ -18253,9 +18254,9 @@
       <c r="H74" s="22"/>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="561"/>
-      <c r="B75" s="546"/>
+    <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="556"/>
+      <c r="B75" s="563"/>
       <c r="C75" s="4" t="s">
         <v>39</v>
       </c>
@@ -18266,9 +18267,9 @@
       <c r="H75" s="22"/>
       <c r="I75" s="10"/>
     </row>
-    <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="561"/>
-      <c r="B76" s="546"/>
+    <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="556"/>
+      <c r="B76" s="563"/>
       <c r="C76" s="4" t="s">
         <v>40</v>
       </c>
@@ -18279,9 +18280,9 @@
       <c r="H76" s="22"/>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="561"/>
-      <c r="B77" s="563" t="s">
+    <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="556"/>
+      <c r="B77" s="564" t="s">
         <v>28</v>
       </c>
       <c r="C77" s="11" t="s">
@@ -18294,9 +18295,9 @@
       <c r="H77" s="23"/>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="561"/>
-      <c r="B78" s="564"/>
+    <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="556"/>
+      <c r="B78" s="565"/>
       <c r="C78" s="5" t="s">
         <v>24</v>
       </c>
@@ -18307,9 +18308,9 @@
       <c r="H78" s="24"/>
       <c r="I78" s="14"/>
     </row>
-    <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="561"/>
-      <c r="B79" s="564"/>
+    <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="556"/>
+      <c r="B79" s="565"/>
       <c r="C79" s="5" t="s">
         <v>25</v>
       </c>
@@ -18320,9 +18321,9 @@
       <c r="H79" s="24"/>
       <c r="I79" s="14"/>
     </row>
-    <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="561"/>
-      <c r="B80" s="564"/>
+    <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="556"/>
+      <c r="B80" s="565"/>
       <c r="C80" s="5" t="s">
         <v>27</v>
       </c>
@@ -18333,8 +18334,8 @@
       <c r="H80" s="24"/>
       <c r="I80" s="29"/>
     </row>
-    <row r="81" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="561"/>
+    <row r="81" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="556"/>
       <c r="B81" s="47" t="s">
         <v>32</v>
       </c>
@@ -18348,9 +18349,9 @@
       <c r="H81" s="50"/>
       <c r="I81" s="51"/>
     </row>
-    <row r="82" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="561"/>
-      <c r="B82" s="550" t="s">
+    <row r="82" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="556"/>
+      <c r="B82" s="545" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="52" t="s">
@@ -18363,9 +18364,9 @@
       <c r="H82" s="68"/>
       <c r="I82" s="54"/>
     </row>
-    <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="561"/>
-      <c r="B83" s="551"/>
+    <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="556"/>
+      <c r="B83" s="546"/>
       <c r="C83" s="55" t="s">
         <v>31</v>
       </c>
@@ -18376,9 +18377,9 @@
       <c r="H83" s="69"/>
       <c r="I83" s="57"/>
     </row>
-    <row r="84" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A84" s="561"/>
-      <c r="B84" s="552"/>
+    <row r="84" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A84" s="556"/>
+      <c r="B84" s="547"/>
       <c r="C84" s="55" t="s">
         <v>18</v>
       </c>
@@ -18389,9 +18390,9 @@
       <c r="H84" s="69"/>
       <c r="I84" s="57"/>
     </row>
-    <row r="85" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A85" s="561"/>
-      <c r="B85" s="552"/>
+    <row r="85" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A85" s="556"/>
+      <c r="B85" s="547"/>
       <c r="C85" s="55" t="s">
         <v>19</v>
       </c>
@@ -18402,9 +18403,9 @@
       <c r="H85" s="69"/>
       <c r="I85" s="57"/>
     </row>
-    <row r="86" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A86" s="561"/>
-      <c r="B86" s="552"/>
+    <row r="86" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A86" s="556"/>
+      <c r="B86" s="547"/>
       <c r="C86" s="55" t="s">
         <v>20</v>
       </c>
@@ -18415,9 +18416,9 @@
       <c r="H86" s="69"/>
       <c r="I86" s="57"/>
     </row>
-    <row r="87" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A87" s="561"/>
-      <c r="B87" s="552"/>
+    <row r="87" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A87" s="556"/>
+      <c r="B87" s="547"/>
       <c r="C87" s="55" t="s">
         <v>21</v>
       </c>
@@ -18428,9 +18429,9 @@
       <c r="H87" s="69"/>
       <c r="I87" s="57"/>
     </row>
-    <row r="88" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A88" s="561"/>
-      <c r="B88" s="553"/>
+    <row r="88" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A88" s="556"/>
+      <c r="B88" s="548"/>
       <c r="C88" s="58" t="s">
         <v>22</v>
       </c>
@@ -18441,9 +18442,9 @@
       <c r="H88" s="70"/>
       <c r="I88" s="60"/>
     </row>
-    <row r="89" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A89" s="561"/>
-      <c r="B89" s="554" t="s">
+    <row r="89" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A89" s="556"/>
+      <c r="B89" s="549" t="s">
         <v>17</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -18456,9 +18457,9 @@
       <c r="H89" s="25"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A90" s="561"/>
-      <c r="B90" s="555"/>
+    <row r="90" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A90" s="556"/>
+      <c r="B90" s="550"/>
       <c r="C90" s="7" t="s">
         <v>36</v>
       </c>
@@ -18469,9 +18470,9 @@
       <c r="H90" s="25"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A91" s="561"/>
-      <c r="B91" s="555"/>
+    <row r="91" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A91" s="556"/>
+      <c r="B91" s="550"/>
       <c r="C91" s="7" t="s">
         <v>37</v>
       </c>
@@ -18482,9 +18483,9 @@
       <c r="H91" s="25"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A92" s="561"/>
-      <c r="B92" s="555"/>
+    <row r="92" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A92" s="556"/>
+      <c r="B92" s="550"/>
       <c r="C92" s="7" t="s">
         <v>38</v>
       </c>
@@ -18495,9 +18496,9 @@
       <c r="H92" s="25"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A93" s="561"/>
-      <c r="B93" s="555"/>
+    <row r="93" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A93" s="556"/>
+      <c r="B93" s="550"/>
       <c r="C93" s="7" t="s">
         <v>39</v>
       </c>
@@ -18508,9 +18509,9 @@
       <c r="H93" s="25"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="562"/>
-      <c r="B94" s="555"/>
+    <row r="94" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="557"/>
+      <c r="B94" s="550"/>
       <c r="C94" s="7" t="s">
         <v>40</v>
       </c>
@@ -18521,11 +18522,11 @@
       <c r="H94" s="25"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="547" t="s">
+    <row r="95" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="542" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="556" t="s">
+      <c r="B95" s="551" t="s">
         <v>23</v>
       </c>
       <c r="C95" s="61" t="s">
@@ -18538,9 +18539,9 @@
       <c r="H95" s="71"/>
       <c r="I95" s="63"/>
     </row>
-    <row r="96" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A96" s="548"/>
-      <c r="B96" s="551"/>
+    <row r="96" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A96" s="543"/>
+      <c r="B96" s="546"/>
       <c r="C96" s="55" t="s">
         <v>31</v>
       </c>
@@ -18551,9 +18552,9 @@
       <c r="H96" s="69"/>
       <c r="I96" s="57"/>
     </row>
-    <row r="97" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A97" s="548"/>
-      <c r="B97" s="551"/>
+    <row r="97" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A97" s="543"/>
+      <c r="B97" s="546"/>
       <c r="C97" s="55" t="s">
         <v>18</v>
       </c>
@@ -18564,9 +18565,9 @@
       <c r="H97" s="69"/>
       <c r="I97" s="57"/>
     </row>
-    <row r="98" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A98" s="548"/>
-      <c r="B98" s="551"/>
+    <row r="98" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A98" s="543"/>
+      <c r="B98" s="546"/>
       <c r="C98" s="55" t="s">
         <v>19</v>
       </c>
@@ -18577,9 +18578,9 @@
       <c r="H98" s="69"/>
       <c r="I98" s="57"/>
     </row>
-    <row r="99" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A99" s="548"/>
-      <c r="B99" s="551"/>
+    <row r="99" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A99" s="543"/>
+      <c r="B99" s="546"/>
       <c r="C99" s="55" t="s">
         <v>20</v>
       </c>
@@ -18590,9 +18591,9 @@
       <c r="H99" s="69"/>
       <c r="I99" s="57"/>
     </row>
-    <row r="100" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A100" s="548"/>
-      <c r="B100" s="551"/>
+    <row r="100" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A100" s="543"/>
+      <c r="B100" s="546"/>
       <c r="C100" s="55" t="s">
         <v>21</v>
       </c>
@@ -18603,9 +18604,9 @@
       <c r="H100" s="69"/>
       <c r="I100" s="57"/>
     </row>
-    <row r="101" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A101" s="548"/>
-      <c r="B101" s="557"/>
+    <row r="101" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A101" s="543"/>
+      <c r="B101" s="552"/>
       <c r="C101" s="58" t="s">
         <v>22</v>
       </c>
@@ -18616,9 +18617,9 @@
       <c r="H101" s="70"/>
       <c r="I101" s="60"/>
     </row>
-    <row r="102" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A102" s="548"/>
-      <c r="B102" s="554" t="s">
+    <row r="102" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A102" s="543"/>
+      <c r="B102" s="549" t="s">
         <v>23</v>
       </c>
       <c r="C102" s="7" t="s">
@@ -18631,9 +18632,9 @@
       <c r="H102" s="25"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A103" s="548"/>
-      <c r="B103" s="555"/>
+    <row r="103" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A103" s="543"/>
+      <c r="B103" s="550"/>
       <c r="C103" s="7" t="s">
         <v>36</v>
       </c>
@@ -18644,9 +18645,9 @@
       <c r="H103" s="25"/>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A104" s="548"/>
-      <c r="B104" s="555"/>
+    <row r="104" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A104" s="543"/>
+      <c r="B104" s="550"/>
       <c r="C104" s="7" t="s">
         <v>37</v>
       </c>
@@ -18657,9 +18658,9 @@
       <c r="H104" s="25"/>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A105" s="548"/>
-      <c r="B105" s="555"/>
+    <row r="105" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A105" s="543"/>
+      <c r="B105" s="550"/>
       <c r="C105" s="7" t="s">
         <v>38</v>
       </c>
@@ -18670,9 +18671,9 @@
       <c r="H105" s="25"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A106" s="548"/>
-      <c r="B106" s="555"/>
+    <row r="106" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A106" s="543"/>
+      <c r="B106" s="550"/>
       <c r="C106" s="7" t="s">
         <v>39</v>
       </c>
@@ -18683,9 +18684,9 @@
       <c r="H106" s="25"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A107" s="548"/>
-      <c r="B107" s="555"/>
+    <row r="107" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A107" s="543"/>
+      <c r="B107" s="550"/>
       <c r="C107" s="7" t="s">
         <v>40</v>
       </c>
@@ -18696,9 +18697,9 @@
       <c r="H107" s="25"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A108" s="548"/>
-      <c r="B108" s="558" t="s">
+    <row r="108" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A108" s="543"/>
+      <c r="B108" s="553" t="s">
         <v>28</v>
       </c>
       <c r="C108" s="18" t="s">
@@ -18711,9 +18712,9 @@
       <c r="H108" s="26"/>
       <c r="I108" s="19"/>
     </row>
-    <row r="109" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A109" s="548"/>
-      <c r="B109" s="559"/>
+    <row r="109" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A109" s="543"/>
+      <c r="B109" s="554"/>
       <c r="C109" s="6" t="s">
         <v>24</v>
       </c>
@@ -18724,9 +18725,9 @@
       <c r="H109" s="27"/>
       <c r="I109" s="21"/>
     </row>
-    <row r="110" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A110" s="548"/>
-      <c r="B110" s="559"/>
+    <row r="110" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A110" s="543"/>
+      <c r="B110" s="554"/>
       <c r="C110" s="6" t="s">
         <v>25</v>
       </c>
@@ -18737,9 +18738,9 @@
       <c r="H110" s="27"/>
       <c r="I110" s="21"/>
     </row>
-    <row r="111" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A111" s="548"/>
-      <c r="B111" s="559"/>
+    <row r="111" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A111" s="543"/>
+      <c r="B111" s="554"/>
       <c r="C111" s="6" t="s">
         <v>27</v>
       </c>
@@ -18750,8 +18751,8 @@
       <c r="H111" s="27"/>
       <c r="I111" s="28"/>
     </row>
-    <row r="112" spans="1:9" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="548"/>
+    <row r="112" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="543"/>
       <c r="B112" s="64" t="s">
         <v>32</v>
       </c>
@@ -18765,9 +18766,9 @@
       <c r="H112" s="72"/>
       <c r="I112" s="67"/>
     </row>
-    <row r="113" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="548"/>
-      <c r="B113" s="565" t="s">
+    <row r="113" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="543"/>
+      <c r="B113" s="558" t="s">
         <v>17</v>
       </c>
       <c r="C113" s="43" t="s">
@@ -18780,9 +18781,9 @@
       <c r="H113" s="45"/>
       <c r="I113" s="46"/>
     </row>
-    <row r="114" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A114" s="548"/>
-      <c r="B114" s="543"/>
+    <row r="114" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A114" s="543"/>
+      <c r="B114" s="559"/>
       <c r="C114" s="35" t="s">
         <v>31</v>
       </c>
@@ -18793,9 +18794,9 @@
       <c r="H114" s="37"/>
       <c r="I114" s="38"/>
     </row>
-    <row r="115" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A115" s="548"/>
-      <c r="B115" s="566"/>
+    <row r="115" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A115" s="543"/>
+      <c r="B115" s="560"/>
       <c r="C115" s="35" t="s">
         <v>18</v>
       </c>
@@ -18806,9 +18807,9 @@
       <c r="H115" s="37"/>
       <c r="I115" s="38"/>
     </row>
-    <row r="116" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A116" s="548"/>
-      <c r="B116" s="566"/>
+    <row r="116" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A116" s="543"/>
+      <c r="B116" s="560"/>
       <c r="C116" s="35" t="s">
         <v>19</v>
       </c>
@@ -18819,9 +18820,9 @@
       <c r="H116" s="37"/>
       <c r="I116" s="38"/>
     </row>
-    <row r="117" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A117" s="548"/>
-      <c r="B117" s="566"/>
+    <row r="117" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A117" s="543"/>
+      <c r="B117" s="560"/>
       <c r="C117" s="35" t="s">
         <v>20</v>
       </c>
@@ -18832,9 +18833,9 @@
       <c r="H117" s="37"/>
       <c r="I117" s="38"/>
     </row>
-    <row r="118" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A118" s="548"/>
-      <c r="B118" s="566"/>
+    <row r="118" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A118" s="543"/>
+      <c r="B118" s="560"/>
       <c r="C118" s="35" t="s">
         <v>21</v>
       </c>
@@ -18845,9 +18846,9 @@
       <c r="H118" s="37"/>
       <c r="I118" s="38"/>
     </row>
-    <row r="119" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A119" s="548"/>
-      <c r="B119" s="567"/>
+    <row r="119" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A119" s="543"/>
+      <c r="B119" s="561"/>
       <c r="C119" s="39" t="s">
         <v>22</v>
       </c>
@@ -18858,9 +18859,9 @@
       <c r="H119" s="41"/>
       <c r="I119" s="42"/>
     </row>
-    <row r="120" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A120" s="548"/>
-      <c r="B120" s="545" t="s">
+    <row r="120" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A120" s="543"/>
+      <c r="B120" s="562" t="s">
         <v>17</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -18873,9 +18874,9 @@
       <c r="H120" s="22"/>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A121" s="548"/>
-      <c r="B121" s="546"/>
+    <row r="121" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A121" s="543"/>
+      <c r="B121" s="563"/>
       <c r="C121" s="4" t="s">
         <v>36</v>
       </c>
@@ -18886,9 +18887,9 @@
       <c r="H121" s="22"/>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A122" s="548"/>
-      <c r="B122" s="546"/>
+    <row r="122" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A122" s="543"/>
+      <c r="B122" s="563"/>
       <c r="C122" s="4" t="s">
         <v>37</v>
       </c>
@@ -18899,9 +18900,9 @@
       <c r="H122" s="22"/>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A123" s="548"/>
-      <c r="B123" s="546"/>
+    <row r="123" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A123" s="543"/>
+      <c r="B123" s="563"/>
       <c r="C123" s="4" t="s">
         <v>38</v>
       </c>
@@ -18912,9 +18913,9 @@
       <c r="H123" s="22"/>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A124" s="548"/>
-      <c r="B124" s="546"/>
+    <row r="124" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A124" s="543"/>
+      <c r="B124" s="563"/>
       <c r="C124" s="4" t="s">
         <v>39</v>
       </c>
@@ -18925,9 +18926,9 @@
       <c r="H124" s="22"/>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="549"/>
-      <c r="B125" s="546"/>
+    <row r="125" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="544"/>
+      <c r="B125" s="563"/>
       <c r="C125" s="4" t="s">
         <v>40</v>
       </c>
@@ -18938,11 +18939,11 @@
       <c r="H125" s="22"/>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="560" t="s">
+    <row r="126" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="555" t="s">
         <v>45</v>
       </c>
-      <c r="B126" s="542" t="s">
+      <c r="B126" s="567" t="s">
         <v>23</v>
       </c>
       <c r="C126" s="31" t="s">
@@ -18955,9 +18956,9 @@
       <c r="H126" s="33"/>
       <c r="I126" s="34"/>
     </row>
-    <row r="127" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A127" s="561"/>
-      <c r="B127" s="543"/>
+    <row r="127" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A127" s="556"/>
+      <c r="B127" s="559"/>
       <c r="C127" s="35" t="s">
         <v>31</v>
       </c>
@@ -18968,9 +18969,9 @@
       <c r="H127" s="37"/>
       <c r="I127" s="38"/>
     </row>
-    <row r="128" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A128" s="561"/>
-      <c r="B128" s="543"/>
+    <row r="128" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A128" s="556"/>
+      <c r="B128" s="559"/>
       <c r="C128" s="35" t="s">
         <v>18</v>
       </c>
@@ -18981,9 +18982,9 @@
       <c r="H128" s="37"/>
       <c r="I128" s="38"/>
     </row>
-    <row r="129" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A129" s="561"/>
-      <c r="B129" s="543"/>
+    <row r="129" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A129" s="556"/>
+      <c r="B129" s="559"/>
       <c r="C129" s="35" t="s">
         <v>19</v>
       </c>
@@ -18994,9 +18995,9 @@
       <c r="H129" s="37"/>
       <c r="I129" s="38"/>
     </row>
-    <row r="130" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A130" s="561"/>
-      <c r="B130" s="543"/>
+    <row r="130" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A130" s="556"/>
+      <c r="B130" s="559"/>
       <c r="C130" s="35" t="s">
         <v>20</v>
       </c>
@@ -19007,9 +19008,9 @@
       <c r="H130" s="37"/>
       <c r="I130" s="38"/>
     </row>
-    <row r="131" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A131" s="561"/>
-      <c r="B131" s="543"/>
+    <row r="131" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A131" s="556"/>
+      <c r="B131" s="559"/>
       <c r="C131" s="35" t="s">
         <v>21</v>
       </c>
@@ -19020,9 +19021,9 @@
       <c r="H131" s="37"/>
       <c r="I131" s="38"/>
     </row>
-    <row r="132" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A132" s="561"/>
-      <c r="B132" s="544"/>
+    <row r="132" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A132" s="556"/>
+      <c r="B132" s="568"/>
       <c r="C132" s="39" t="s">
         <v>22</v>
       </c>
@@ -19033,9 +19034,9 @@
       <c r="H132" s="41"/>
       <c r="I132" s="42"/>
     </row>
-    <row r="133" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A133" s="561"/>
-      <c r="B133" s="545" t="s">
+    <row r="133" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A133" s="556"/>
+      <c r="B133" s="562" t="s">
         <v>23</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -19048,9 +19049,9 @@
       <c r="H133" s="22"/>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A134" s="561"/>
-      <c r="B134" s="546"/>
+    <row r="134" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A134" s="556"/>
+      <c r="B134" s="563"/>
       <c r="C134" s="4" t="s">
         <v>36</v>
       </c>
@@ -19061,9 +19062,9 @@
       <c r="H134" s="22"/>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A135" s="561"/>
-      <c r="B135" s="546"/>
+    <row r="135" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A135" s="556"/>
+      <c r="B135" s="563"/>
       <c r="C135" s="4" t="s">
         <v>37</v>
       </c>
@@ -19074,9 +19075,9 @@
       <c r="H135" s="22"/>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A136" s="561"/>
-      <c r="B136" s="546"/>
+    <row r="136" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A136" s="556"/>
+      <c r="B136" s="563"/>
       <c r="C136" s="4" t="s">
         <v>38</v>
       </c>
@@ -19087,9 +19088,9 @@
       <c r="H136" s="22"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A137" s="561"/>
-      <c r="B137" s="546"/>
+    <row r="137" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A137" s="556"/>
+      <c r="B137" s="563"/>
       <c r="C137" s="4" t="s">
         <v>39</v>
       </c>
@@ -19100,9 +19101,9 @@
       <c r="H137" s="22"/>
       <c r="I137" s="10"/>
     </row>
-    <row r="138" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A138" s="561"/>
-      <c r="B138" s="546"/>
+    <row r="138" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A138" s="556"/>
+      <c r="B138" s="563"/>
       <c r="C138" s="4" t="s">
         <v>40</v>
       </c>
@@ -19113,9 +19114,9 @@
       <c r="H138" s="22"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A139" s="561"/>
-      <c r="B139" s="563" t="s">
+    <row r="139" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A139" s="556"/>
+      <c r="B139" s="564" t="s">
         <v>28</v>
       </c>
       <c r="C139" s="11" t="s">
@@ -19128,9 +19129,9 @@
       <c r="H139" s="23"/>
       <c r="I139" s="12"/>
     </row>
-    <row r="140" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A140" s="561"/>
-      <c r="B140" s="564"/>
+    <row r="140" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A140" s="556"/>
+      <c r="B140" s="565"/>
       <c r="C140" s="5" t="s">
         <v>24</v>
       </c>
@@ -19141,9 +19142,9 @@
       <c r="H140" s="24"/>
       <c r="I140" s="14"/>
     </row>
-    <row r="141" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A141" s="561"/>
-      <c r="B141" s="564"/>
+    <row r="141" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A141" s="556"/>
+      <c r="B141" s="565"/>
       <c r="C141" s="5" t="s">
         <v>25</v>
       </c>
@@ -19154,9 +19155,9 @@
       <c r="H141" s="24"/>
       <c r="I141" s="14"/>
     </row>
-    <row r="142" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A142" s="561"/>
-      <c r="B142" s="564"/>
+    <row r="142" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A142" s="556"/>
+      <c r="B142" s="565"/>
       <c r="C142" s="5" t="s">
         <v>27</v>
       </c>
@@ -19167,8 +19168,8 @@
       <c r="H142" s="24"/>
       <c r="I142" s="29"/>
     </row>
-    <row r="143" spans="1:9" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="561"/>
+    <row r="143" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="556"/>
       <c r="B143" s="47" t="s">
         <v>32</v>
       </c>
@@ -19182,9 +19183,9 @@
       <c r="H143" s="50"/>
       <c r="I143" s="51"/>
     </row>
-    <row r="144" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="561"/>
-      <c r="B144" s="550" t="s">
+    <row r="144" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="556"/>
+      <c r="B144" s="545" t="s">
         <v>17</v>
       </c>
       <c r="C144" s="52" t="s">
@@ -19197,9 +19198,9 @@
       <c r="H144" s="68"/>
       <c r="I144" s="54"/>
     </row>
-    <row r="145" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A145" s="561"/>
-      <c r="B145" s="551"/>
+    <row r="145" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A145" s="556"/>
+      <c r="B145" s="546"/>
       <c r="C145" s="55" t="s">
         <v>31</v>
       </c>
@@ -19210,9 +19211,9 @@
       <c r="H145" s="69"/>
       <c r="I145" s="57"/>
     </row>
-    <row r="146" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A146" s="561"/>
-      <c r="B146" s="552"/>
+    <row r="146" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A146" s="556"/>
+      <c r="B146" s="547"/>
       <c r="C146" s="55" t="s">
         <v>18</v>
       </c>
@@ -19223,9 +19224,9 @@
       <c r="H146" s="69"/>
       <c r="I146" s="57"/>
     </row>
-    <row r="147" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A147" s="561"/>
-      <c r="B147" s="552"/>
+    <row r="147" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A147" s="556"/>
+      <c r="B147" s="547"/>
       <c r="C147" s="55" t="s">
         <v>19</v>
       </c>
@@ -19236,9 +19237,9 @@
       <c r="H147" s="69"/>
       <c r="I147" s="57"/>
     </row>
-    <row r="148" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A148" s="561"/>
-      <c r="B148" s="552"/>
+    <row r="148" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A148" s="556"/>
+      <c r="B148" s="547"/>
       <c r="C148" s="55" t="s">
         <v>20</v>
       </c>
@@ -19249,9 +19250,9 @@
       <c r="H148" s="69"/>
       <c r="I148" s="57"/>
     </row>
-    <row r="149" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A149" s="561"/>
-      <c r="B149" s="552"/>
+    <row r="149" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A149" s="556"/>
+      <c r="B149" s="547"/>
       <c r="C149" s="55" t="s">
         <v>21</v>
       </c>
@@ -19262,9 +19263,9 @@
       <c r="H149" s="69"/>
       <c r="I149" s="57"/>
     </row>
-    <row r="150" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A150" s="561"/>
-      <c r="B150" s="553"/>
+    <row r="150" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A150" s="556"/>
+      <c r="B150" s="548"/>
       <c r="C150" s="58" t="s">
         <v>22</v>
       </c>
@@ -19275,9 +19276,9 @@
       <c r="H150" s="70"/>
       <c r="I150" s="60"/>
     </row>
-    <row r="151" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A151" s="561"/>
-      <c r="B151" s="554" t="s">
+    <row r="151" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A151" s="556"/>
+      <c r="B151" s="549" t="s">
         <v>17</v>
       </c>
       <c r="C151" s="7" t="s">
@@ -19290,9 +19291,9 @@
       <c r="H151" s="25"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A152" s="561"/>
-      <c r="B152" s="555"/>
+    <row r="152" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A152" s="556"/>
+      <c r="B152" s="550"/>
       <c r="C152" s="7" t="s">
         <v>36</v>
       </c>
@@ -19303,9 +19304,9 @@
       <c r="H152" s="25"/>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A153" s="561"/>
-      <c r="B153" s="555"/>
+    <row r="153" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A153" s="556"/>
+      <c r="B153" s="550"/>
       <c r="C153" s="7" t="s">
         <v>37</v>
       </c>
@@ -19316,9 +19317,9 @@
       <c r="H153" s="25"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A154" s="561"/>
-      <c r="B154" s="555"/>
+    <row r="154" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A154" s="556"/>
+      <c r="B154" s="550"/>
       <c r="C154" s="7" t="s">
         <v>38</v>
       </c>
@@ -19329,9 +19330,9 @@
       <c r="H154" s="25"/>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A155" s="561"/>
-      <c r="B155" s="555"/>
+    <row r="155" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A155" s="556"/>
+      <c r="B155" s="550"/>
       <c r="C155" s="7" t="s">
         <v>39</v>
       </c>
@@ -19342,9 +19343,9 @@
       <c r="H155" s="25"/>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="562"/>
-      <c r="B156" s="555"/>
+    <row r="156" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="557"/>
+      <c r="B156" s="550"/>
       <c r="C156" s="7" t="s">
         <v>40</v>
       </c>
@@ -19355,11 +19356,11 @@
       <c r="H156" s="25"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="547" t="s">
+    <row r="157" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="542" t="s">
         <v>46</v>
       </c>
-      <c r="B157" s="556" t="s">
+      <c r="B157" s="551" t="s">
         <v>23</v>
       </c>
       <c r="C157" s="61" t="s">
@@ -19372,9 +19373,9 @@
       <c r="H157" s="71"/>
       <c r="I157" s="63"/>
     </row>
-    <row r="158" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A158" s="548"/>
-      <c r="B158" s="551"/>
+    <row r="158" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A158" s="543"/>
+      <c r="B158" s="546"/>
       <c r="C158" s="55" t="s">
         <v>31</v>
       </c>
@@ -19385,9 +19386,9 @@
       <c r="H158" s="69"/>
       <c r="I158" s="57"/>
     </row>
-    <row r="159" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A159" s="548"/>
-      <c r="B159" s="551"/>
+    <row r="159" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A159" s="543"/>
+      <c r="B159" s="546"/>
       <c r="C159" s="55" t="s">
         <v>18</v>
       </c>
@@ -19398,9 +19399,9 @@
       <c r="H159" s="69"/>
       <c r="I159" s="57"/>
     </row>
-    <row r="160" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A160" s="548"/>
-      <c r="B160" s="551"/>
+    <row r="160" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A160" s="543"/>
+      <c r="B160" s="546"/>
       <c r="C160" s="55" t="s">
         <v>19</v>
       </c>
@@ -19411,9 +19412,9 @@
       <c r="H160" s="69"/>
       <c r="I160" s="57"/>
     </row>
-    <row r="161" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A161" s="548"/>
-      <c r="B161" s="551"/>
+    <row r="161" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A161" s="543"/>
+      <c r="B161" s="546"/>
       <c r="C161" s="55" t="s">
         <v>20</v>
       </c>
@@ -19424,9 +19425,9 @@
       <c r="H161" s="69"/>
       <c r="I161" s="57"/>
     </row>
-    <row r="162" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A162" s="548"/>
-      <c r="B162" s="551"/>
+    <row r="162" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A162" s="543"/>
+      <c r="B162" s="546"/>
       <c r="C162" s="55" t="s">
         <v>21</v>
       </c>
@@ -19437,9 +19438,9 @@
       <c r="H162" s="69"/>
       <c r="I162" s="57"/>
     </row>
-    <row r="163" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A163" s="548"/>
-      <c r="B163" s="557"/>
+    <row r="163" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A163" s="543"/>
+      <c r="B163" s="552"/>
       <c r="C163" s="58" t="s">
         <v>22</v>
       </c>
@@ -19450,9 +19451,9 @@
       <c r="H163" s="70"/>
       <c r="I163" s="60"/>
     </row>
-    <row r="164" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A164" s="548"/>
-      <c r="B164" s="554" t="s">
+    <row r="164" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A164" s="543"/>
+      <c r="B164" s="549" t="s">
         <v>23</v>
       </c>
       <c r="C164" s="7" t="s">
@@ -19465,9 +19466,9 @@
       <c r="H164" s="25"/>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A165" s="548"/>
-      <c r="B165" s="555"/>
+    <row r="165" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A165" s="543"/>
+      <c r="B165" s="550"/>
       <c r="C165" s="7" t="s">
         <v>36</v>
       </c>
@@ -19478,9 +19479,9 @@
       <c r="H165" s="25"/>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A166" s="548"/>
-      <c r="B166" s="555"/>
+    <row r="166" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A166" s="543"/>
+      <c r="B166" s="550"/>
       <c r="C166" s="7" t="s">
         <v>37</v>
       </c>
@@ -19491,9 +19492,9 @@
       <c r="H166" s="25"/>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A167" s="548"/>
-      <c r="B167" s="555"/>
+    <row r="167" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A167" s="543"/>
+      <c r="B167" s="550"/>
       <c r="C167" s="7" t="s">
         <v>38</v>
       </c>
@@ -19504,9 +19505,9 @@
       <c r="H167" s="25"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A168" s="548"/>
-      <c r="B168" s="555"/>
+    <row r="168" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A168" s="543"/>
+      <c r="B168" s="550"/>
       <c r="C168" s="7" t="s">
         <v>39</v>
       </c>
@@ -19517,9 +19518,9 @@
       <c r="H168" s="25"/>
       <c r="I168" s="17"/>
     </row>
-    <row r="169" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A169" s="548"/>
-      <c r="B169" s="555"/>
+    <row r="169" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A169" s="543"/>
+      <c r="B169" s="550"/>
       <c r="C169" s="7" t="s">
         <v>40</v>
       </c>
@@ -19530,9 +19531,9 @@
       <c r="H169" s="25"/>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A170" s="548"/>
-      <c r="B170" s="558" t="s">
+    <row r="170" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A170" s="543"/>
+      <c r="B170" s="553" t="s">
         <v>28</v>
       </c>
       <c r="C170" s="18" t="s">
@@ -19545,9 +19546,9 @@
       <c r="H170" s="26"/>
       <c r="I170" s="19"/>
     </row>
-    <row r="171" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A171" s="548"/>
-      <c r="B171" s="559"/>
+    <row r="171" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A171" s="543"/>
+      <c r="B171" s="554"/>
       <c r="C171" s="6" t="s">
         <v>24</v>
       </c>
@@ -19558,9 +19559,9 @@
       <c r="H171" s="27"/>
       <c r="I171" s="21"/>
     </row>
-    <row r="172" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A172" s="548"/>
-      <c r="B172" s="559"/>
+    <row r="172" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A172" s="543"/>
+      <c r="B172" s="554"/>
       <c r="C172" s="6" t="s">
         <v>25</v>
       </c>
@@ -19571,9 +19572,9 @@
       <c r="H172" s="27"/>
       <c r="I172" s="21"/>
     </row>
-    <row r="173" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A173" s="548"/>
-      <c r="B173" s="559"/>
+    <row r="173" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A173" s="543"/>
+      <c r="B173" s="554"/>
       <c r="C173" s="6" t="s">
         <v>27</v>
       </c>
@@ -19584,8 +19585,8 @@
       <c r="H173" s="27"/>
       <c r="I173" s="28"/>
     </row>
-    <row r="174" spans="1:9" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="548"/>
+    <row r="174" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="543"/>
       <c r="B174" s="64" t="s">
         <v>32</v>
       </c>
@@ -19599,9 +19600,9 @@
       <c r="H174" s="72"/>
       <c r="I174" s="67"/>
     </row>
-    <row r="175" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="548"/>
-      <c r="B175" s="565" t="s">
+    <row r="175" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="543"/>
+      <c r="B175" s="558" t="s">
         <v>17</v>
       </c>
       <c r="C175" s="43" t="s">
@@ -19614,9 +19615,9 @@
       <c r="H175" s="45"/>
       <c r="I175" s="46"/>
     </row>
-    <row r="176" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A176" s="548"/>
-      <c r="B176" s="543"/>
+    <row r="176" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A176" s="543"/>
+      <c r="B176" s="559"/>
       <c r="C176" s="35" t="s">
         <v>31</v>
       </c>
@@ -19627,9 +19628,9 @@
       <c r="H176" s="37"/>
       <c r="I176" s="38"/>
     </row>
-    <row r="177" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A177" s="548"/>
-      <c r="B177" s="566"/>
+    <row r="177" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A177" s="543"/>
+      <c r="B177" s="560"/>
       <c r="C177" s="35" t="s">
         <v>18</v>
       </c>
@@ -19640,9 +19641,9 @@
       <c r="H177" s="37"/>
       <c r="I177" s="38"/>
     </row>
-    <row r="178" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A178" s="548"/>
-      <c r="B178" s="566"/>
+    <row r="178" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A178" s="543"/>
+      <c r="B178" s="560"/>
       <c r="C178" s="35" t="s">
         <v>19</v>
       </c>
@@ -19653,9 +19654,9 @@
       <c r="H178" s="37"/>
       <c r="I178" s="38"/>
     </row>
-    <row r="179" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A179" s="548"/>
-      <c r="B179" s="566"/>
+    <row r="179" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A179" s="543"/>
+      <c r="B179" s="560"/>
       <c r="C179" s="35" t="s">
         <v>20</v>
       </c>
@@ -19666,9 +19667,9 @@
       <c r="H179" s="37"/>
       <c r="I179" s="38"/>
     </row>
-    <row r="180" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A180" s="548"/>
-      <c r="B180" s="566"/>
+    <row r="180" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A180" s="543"/>
+      <c r="B180" s="560"/>
       <c r="C180" s="35" t="s">
         <v>21</v>
       </c>
@@ -19679,9 +19680,9 @@
       <c r="H180" s="37"/>
       <c r="I180" s="38"/>
     </row>
-    <row r="181" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A181" s="548"/>
-      <c r="B181" s="567"/>
+    <row r="181" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A181" s="543"/>
+      <c r="B181" s="561"/>
       <c r="C181" s="39" t="s">
         <v>22</v>
       </c>
@@ -19692,9 +19693,9 @@
       <c r="H181" s="41"/>
       <c r="I181" s="42"/>
     </row>
-    <row r="182" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A182" s="548"/>
-      <c r="B182" s="545" t="s">
+    <row r="182" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A182" s="543"/>
+      <c r="B182" s="562" t="s">
         <v>17</v>
       </c>
       <c r="C182" s="4" t="s">
@@ -19707,9 +19708,9 @@
       <c r="H182" s="22"/>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A183" s="548"/>
-      <c r="B183" s="546"/>
+    <row r="183" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A183" s="543"/>
+      <c r="B183" s="563"/>
       <c r="C183" s="4" t="s">
         <v>36</v>
       </c>
@@ -19720,9 +19721,9 @@
       <c r="H183" s="22"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A184" s="548"/>
-      <c r="B184" s="546"/>
+    <row r="184" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A184" s="543"/>
+      <c r="B184" s="563"/>
       <c r="C184" s="4" t="s">
         <v>37</v>
       </c>
@@ -19733,9 +19734,9 @@
       <c r="H184" s="22"/>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A185" s="548"/>
-      <c r="B185" s="546"/>
+    <row r="185" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A185" s="543"/>
+      <c r="B185" s="563"/>
       <c r="C185" s="4" t="s">
         <v>38</v>
       </c>
@@ -19746,9 +19747,9 @@
       <c r="H185" s="22"/>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A186" s="548"/>
-      <c r="B186" s="546"/>
+    <row r="186" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A186" s="543"/>
+      <c r="B186" s="563"/>
       <c r="C186" s="4" t="s">
         <v>39</v>
       </c>
@@ -19759,9 +19760,9 @@
       <c r="H186" s="22"/>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="549"/>
-      <c r="B187" s="546"/>
+    <row r="187" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="544"/>
+      <c r="B187" s="563"/>
       <c r="C187" s="4" t="s">
         <v>40</v>
       </c>
@@ -19772,11 +19773,11 @@
       <c r="H187" s="22"/>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="560" t="s">
+    <row r="188" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="555" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="542" t="s">
+      <c r="B188" s="567" t="s">
         <v>23</v>
       </c>
       <c r="C188" s="31" t="s">
@@ -19789,9 +19790,9 @@
       <c r="H188" s="33"/>
       <c r="I188" s="34"/>
     </row>
-    <row r="189" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A189" s="561"/>
-      <c r="B189" s="543"/>
+    <row r="189" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A189" s="556"/>
+      <c r="B189" s="559"/>
       <c r="C189" s="35" t="s">
         <v>31</v>
       </c>
@@ -19802,9 +19803,9 @@
       <c r="H189" s="37"/>
       <c r="I189" s="38"/>
     </row>
-    <row r="190" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A190" s="561"/>
-      <c r="B190" s="543"/>
+    <row r="190" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A190" s="556"/>
+      <c r="B190" s="559"/>
       <c r="C190" s="35" t="s">
         <v>18</v>
       </c>
@@ -19815,9 +19816,9 @@
       <c r="H190" s="37"/>
       <c r="I190" s="38"/>
     </row>
-    <row r="191" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A191" s="561"/>
-      <c r="B191" s="543"/>
+    <row r="191" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A191" s="556"/>
+      <c r="B191" s="559"/>
       <c r="C191" s="35" t="s">
         <v>19</v>
       </c>
@@ -19828,9 +19829,9 @@
       <c r="H191" s="37"/>
       <c r="I191" s="38"/>
     </row>
-    <row r="192" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A192" s="561"/>
-      <c r="B192" s="543"/>
+    <row r="192" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A192" s="556"/>
+      <c r="B192" s="559"/>
       <c r="C192" s="35" t="s">
         <v>20</v>
       </c>
@@ -19841,9 +19842,9 @@
       <c r="H192" s="37"/>
       <c r="I192" s="38"/>
     </row>
-    <row r="193" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A193" s="561"/>
-      <c r="B193" s="543"/>
+    <row r="193" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A193" s="556"/>
+      <c r="B193" s="559"/>
       <c r="C193" s="35" t="s">
         <v>21</v>
       </c>
@@ -19854,9 +19855,9 @@
       <c r="H193" s="37"/>
       <c r="I193" s="38"/>
     </row>
-    <row r="194" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A194" s="561"/>
-      <c r="B194" s="544"/>
+    <row r="194" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A194" s="556"/>
+      <c r="B194" s="568"/>
       <c r="C194" s="39" t="s">
         <v>22</v>
       </c>
@@ -19867,9 +19868,9 @@
       <c r="H194" s="41"/>
       <c r="I194" s="42"/>
     </row>
-    <row r="195" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A195" s="561"/>
-      <c r="B195" s="545" t="s">
+    <row r="195" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A195" s="556"/>
+      <c r="B195" s="562" t="s">
         <v>23</v>
       </c>
       <c r="C195" s="4" t="s">
@@ -19882,9 +19883,9 @@
       <c r="H195" s="22"/>
       <c r="I195" s="10"/>
     </row>
-    <row r="196" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A196" s="561"/>
-      <c r="B196" s="546"/>
+    <row r="196" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A196" s="556"/>
+      <c r="B196" s="563"/>
       <c r="C196" s="4" t="s">
         <v>36</v>
       </c>
@@ -19895,9 +19896,9 @@
       <c r="H196" s="22"/>
       <c r="I196" s="10"/>
     </row>
-    <row r="197" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A197" s="561"/>
-      <c r="B197" s="546"/>
+    <row r="197" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A197" s="556"/>
+      <c r="B197" s="563"/>
       <c r="C197" s="4" t="s">
         <v>37</v>
       </c>
@@ -19908,9 +19909,9 @@
       <c r="H197" s="22"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A198" s="561"/>
-      <c r="B198" s="546"/>
+    <row r="198" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A198" s="556"/>
+      <c r="B198" s="563"/>
       <c r="C198" s="4" t="s">
         <v>38</v>
       </c>
@@ -19921,9 +19922,9 @@
       <c r="H198" s="22"/>
       <c r="I198" s="10"/>
     </row>
-    <row r="199" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A199" s="561"/>
-      <c r="B199" s="546"/>
+    <row r="199" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A199" s="556"/>
+      <c r="B199" s="563"/>
       <c r="C199" s="4" t="s">
         <v>39</v>
       </c>
@@ -19934,9 +19935,9 @@
       <c r="H199" s="22"/>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A200" s="561"/>
-      <c r="B200" s="546"/>
+    <row r="200" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A200" s="556"/>
+      <c r="B200" s="563"/>
       <c r="C200" s="4" t="s">
         <v>40</v>
       </c>
@@ -19947,9 +19948,9 @@
       <c r="H200" s="22"/>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A201" s="561"/>
-      <c r="B201" s="563" t="s">
+    <row r="201" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A201" s="556"/>
+      <c r="B201" s="564" t="s">
         <v>28</v>
       </c>
       <c r="C201" s="11" t="s">
@@ -19962,9 +19963,9 @@
       <c r="H201" s="23"/>
       <c r="I201" s="12"/>
     </row>
-    <row r="202" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A202" s="561"/>
-      <c r="B202" s="564"/>
+    <row r="202" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A202" s="556"/>
+      <c r="B202" s="565"/>
       <c r="C202" s="5" t="s">
         <v>24</v>
       </c>
@@ -19975,9 +19976,9 @@
       <c r="H202" s="24"/>
       <c r="I202" s="14"/>
     </row>
-    <row r="203" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A203" s="561"/>
-      <c r="B203" s="564"/>
+    <row r="203" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A203" s="556"/>
+      <c r="B203" s="565"/>
       <c r="C203" s="5" t="s">
         <v>25</v>
       </c>
@@ -19988,9 +19989,9 @@
       <c r="H203" s="24"/>
       <c r="I203" s="14"/>
     </row>
-    <row r="204" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A204" s="561"/>
-      <c r="B204" s="564"/>
+    <row r="204" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A204" s="556"/>
+      <c r="B204" s="565"/>
       <c r="C204" s="5" t="s">
         <v>27</v>
       </c>
@@ -20001,8 +20002,8 @@
       <c r="H204" s="24"/>
       <c r="I204" s="29"/>
     </row>
-    <row r="205" spans="1:9" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="561"/>
+    <row r="205" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="556"/>
       <c r="B205" s="47" t="s">
         <v>32</v>
       </c>
@@ -20016,9 +20017,9 @@
       <c r="H205" s="50"/>
       <c r="I205" s="51"/>
     </row>
-    <row r="206" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="561"/>
-      <c r="B206" s="550" t="s">
+    <row r="206" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="556"/>
+      <c r="B206" s="545" t="s">
         <v>17</v>
       </c>
       <c r="C206" s="52" t="s">
@@ -20031,9 +20032,9 @@
       <c r="H206" s="68"/>
       <c r="I206" s="54"/>
     </row>
-    <row r="207" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A207" s="561"/>
-      <c r="B207" s="551"/>
+    <row r="207" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A207" s="556"/>
+      <c r="B207" s="546"/>
       <c r="C207" s="55" t="s">
         <v>31</v>
       </c>
@@ -20044,9 +20045,9 @@
       <c r="H207" s="69"/>
       <c r="I207" s="57"/>
     </row>
-    <row r="208" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A208" s="561"/>
-      <c r="B208" s="552"/>
+    <row r="208" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A208" s="556"/>
+      <c r="B208" s="547"/>
       <c r="C208" s="55" t="s">
         <v>18</v>
       </c>
@@ -20057,9 +20058,9 @@
       <c r="H208" s="69"/>
       <c r="I208" s="57"/>
     </row>
-    <row r="209" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A209" s="561"/>
-      <c r="B209" s="552"/>
+    <row r="209" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A209" s="556"/>
+      <c r="B209" s="547"/>
       <c r="C209" s="55" t="s">
         <v>19</v>
       </c>
@@ -20070,9 +20071,9 @@
       <c r="H209" s="69"/>
       <c r="I209" s="57"/>
     </row>
-    <row r="210" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A210" s="561"/>
-      <c r="B210" s="552"/>
+    <row r="210" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A210" s="556"/>
+      <c r="B210" s="547"/>
       <c r="C210" s="55" t="s">
         <v>20</v>
       </c>
@@ -20083,9 +20084,9 @@
       <c r="H210" s="69"/>
       <c r="I210" s="57"/>
     </row>
-    <row r="211" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A211" s="561"/>
-      <c r="B211" s="552"/>
+    <row r="211" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A211" s="556"/>
+      <c r="B211" s="547"/>
       <c r="C211" s="55" t="s">
         <v>21</v>
       </c>
@@ -20096,9 +20097,9 @@
       <c r="H211" s="69"/>
       <c r="I211" s="57"/>
     </row>
-    <row r="212" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A212" s="561"/>
-      <c r="B212" s="553"/>
+    <row r="212" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A212" s="556"/>
+      <c r="B212" s="548"/>
       <c r="C212" s="58" t="s">
         <v>22</v>
       </c>
@@ -20109,9 +20110,9 @@
       <c r="H212" s="70"/>
       <c r="I212" s="60"/>
     </row>
-    <row r="213" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A213" s="561"/>
-      <c r="B213" s="554" t="s">
+    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A213" s="556"/>
+      <c r="B213" s="549" t="s">
         <v>17</v>
       </c>
       <c r="C213" s="7" t="s">
@@ -20124,9 +20125,9 @@
       <c r="H213" s="25"/>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A214" s="561"/>
-      <c r="B214" s="555"/>
+    <row r="214" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A214" s="556"/>
+      <c r="B214" s="550"/>
       <c r="C214" s="7" t="s">
         <v>36</v>
       </c>
@@ -20137,9 +20138,9 @@
       <c r="H214" s="25"/>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A215" s="561"/>
-      <c r="B215" s="555"/>
+    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A215" s="556"/>
+      <c r="B215" s="550"/>
       <c r="C215" s="7" t="s">
         <v>37</v>
       </c>
@@ -20150,9 +20151,9 @@
       <c r="H215" s="25"/>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A216" s="561"/>
-      <c r="B216" s="555"/>
+    <row r="216" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A216" s="556"/>
+      <c r="B216" s="550"/>
       <c r="C216" s="7" t="s">
         <v>38</v>
       </c>
@@ -20163,9 +20164,9 @@
       <c r="H216" s="25"/>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A217" s="561"/>
-      <c r="B217" s="555"/>
+    <row r="217" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A217" s="556"/>
+      <c r="B217" s="550"/>
       <c r="C217" s="7" t="s">
         <v>39</v>
       </c>
@@ -20176,9 +20177,9 @@
       <c r="H217" s="25"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="562"/>
-      <c r="B218" s="555"/>
+    <row r="218" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="557"/>
+      <c r="B218" s="550"/>
       <c r="C218" s="7" t="s">
         <v>40</v>
       </c>
@@ -20189,11 +20190,11 @@
       <c r="H218" s="25"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="547" t="s">
+    <row r="219" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="542" t="s">
         <v>48</v>
       </c>
-      <c r="B219" s="556" t="s">
+      <c r="B219" s="551" t="s">
         <v>23</v>
       </c>
       <c r="C219" s="61" t="s">
@@ -20206,9 +20207,9 @@
       <c r="H219" s="71"/>
       <c r="I219" s="63"/>
     </row>
-    <row r="220" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A220" s="548"/>
-      <c r="B220" s="551"/>
+    <row r="220" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A220" s="543"/>
+      <c r="B220" s="546"/>
       <c r="C220" s="55" t="s">
         <v>31</v>
       </c>
@@ -20219,9 +20220,9 @@
       <c r="H220" s="69"/>
       <c r="I220" s="57"/>
     </row>
-    <row r="221" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A221" s="548"/>
-      <c r="B221" s="551"/>
+    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A221" s="543"/>
+      <c r="B221" s="546"/>
       <c r="C221" s="55" t="s">
         <v>18</v>
       </c>
@@ -20232,9 +20233,9 @@
       <c r="H221" s="69"/>
       <c r="I221" s="57"/>
     </row>
-    <row r="222" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A222" s="548"/>
-      <c r="B222" s="551"/>
+    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A222" s="543"/>
+      <c r="B222" s="546"/>
       <c r="C222" s="55" t="s">
         <v>19</v>
       </c>
@@ -20245,9 +20246,9 @@
       <c r="H222" s="69"/>
       <c r="I222" s="57"/>
     </row>
-    <row r="223" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A223" s="548"/>
-      <c r="B223" s="551"/>
+    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A223" s="543"/>
+      <c r="B223" s="546"/>
       <c r="C223" s="55" t="s">
         <v>20</v>
       </c>
@@ -20258,9 +20259,9 @@
       <c r="H223" s="69"/>
       <c r="I223" s="57"/>
     </row>
-    <row r="224" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A224" s="548"/>
-      <c r="B224" s="551"/>
+    <row r="224" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A224" s="543"/>
+      <c r="B224" s="546"/>
       <c r="C224" s="55" t="s">
         <v>21</v>
       </c>
@@ -20271,9 +20272,9 @@
       <c r="H224" s="69"/>
       <c r="I224" s="57"/>
     </row>
-    <row r="225" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A225" s="548"/>
-      <c r="B225" s="557"/>
+    <row r="225" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A225" s="543"/>
+      <c r="B225" s="552"/>
       <c r="C225" s="58" t="s">
         <v>22</v>
       </c>
@@ -20284,9 +20285,9 @@
       <c r="H225" s="70"/>
       <c r="I225" s="60"/>
     </row>
-    <row r="226" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A226" s="548"/>
-      <c r="B226" s="554" t="s">
+    <row r="226" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A226" s="543"/>
+      <c r="B226" s="549" t="s">
         <v>23</v>
       </c>
       <c r="C226" s="7" t="s">
@@ -20299,9 +20300,9 @@
       <c r="H226" s="25"/>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A227" s="548"/>
-      <c r="B227" s="555"/>
+    <row r="227" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A227" s="543"/>
+      <c r="B227" s="550"/>
       <c r="C227" s="7" t="s">
         <v>36</v>
       </c>
@@ -20312,9 +20313,9 @@
       <c r="H227" s="25"/>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A228" s="548"/>
-      <c r="B228" s="555"/>
+    <row r="228" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A228" s="543"/>
+      <c r="B228" s="550"/>
       <c r="C228" s="7" t="s">
         <v>37</v>
       </c>
@@ -20325,9 +20326,9 @@
       <c r="H228" s="25"/>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A229" s="548"/>
-      <c r="B229" s="555"/>
+    <row r="229" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A229" s="543"/>
+      <c r="B229" s="550"/>
       <c r="C229" s="7" t="s">
         <v>38</v>
       </c>
@@ -20338,9 +20339,9 @@
       <c r="H229" s="25"/>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A230" s="548"/>
-      <c r="B230" s="555"/>
+    <row r="230" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A230" s="543"/>
+      <c r="B230" s="550"/>
       <c r="C230" s="7" t="s">
         <v>39</v>
       </c>
@@ -20351,9 +20352,9 @@
       <c r="H230" s="25"/>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A231" s="548"/>
-      <c r="B231" s="555"/>
+    <row r="231" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A231" s="543"/>
+      <c r="B231" s="550"/>
       <c r="C231" s="7" t="s">
         <v>40</v>
       </c>
@@ -20364,9 +20365,9 @@
       <c r="H231" s="25"/>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A232" s="548"/>
-      <c r="B232" s="558" t="s">
+    <row r="232" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A232" s="543"/>
+      <c r="B232" s="553" t="s">
         <v>28</v>
       </c>
       <c r="C232" s="18" t="s">
@@ -20379,9 +20380,9 @@
       <c r="H232" s="26"/>
       <c r="I232" s="19"/>
     </row>
-    <row r="233" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A233" s="548"/>
-      <c r="B233" s="559"/>
+    <row r="233" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A233" s="543"/>
+      <c r="B233" s="554"/>
       <c r="C233" s="6" t="s">
         <v>24</v>
       </c>
@@ -20392,9 +20393,9 @@
       <c r="H233" s="27"/>
       <c r="I233" s="21"/>
     </row>
-    <row r="234" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A234" s="548"/>
-      <c r="B234" s="559"/>
+    <row r="234" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A234" s="543"/>
+      <c r="B234" s="554"/>
       <c r="C234" s="6" t="s">
         <v>25</v>
       </c>
@@ -20405,9 +20406,9 @@
       <c r="H234" s="27"/>
       <c r="I234" s="21"/>
     </row>
-    <row r="235" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A235" s="548"/>
-      <c r="B235" s="559"/>
+    <row r="235" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A235" s="543"/>
+      <c r="B235" s="554"/>
       <c r="C235" s="6" t="s">
         <v>27</v>
       </c>
@@ -20418,8 +20419,8 @@
       <c r="H235" s="27"/>
       <c r="I235" s="28"/>
     </row>
-    <row r="236" spans="1:9" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="548"/>
+    <row r="236" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="543"/>
       <c r="B236" s="64" t="s">
         <v>32</v>
       </c>
@@ -20433,9 +20434,9 @@
       <c r="H236" s="72"/>
       <c r="I236" s="67"/>
     </row>
-    <row r="237" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="548"/>
-      <c r="B237" s="565" t="s">
+    <row r="237" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="543"/>
+      <c r="B237" s="558" t="s">
         <v>17</v>
       </c>
       <c r="C237" s="43" t="s">
@@ -20448,9 +20449,9 @@
       <c r="H237" s="45"/>
       <c r="I237" s="46"/>
     </row>
-    <row r="238" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A238" s="548"/>
-      <c r="B238" s="543"/>
+    <row r="238" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A238" s="543"/>
+      <c r="B238" s="559"/>
       <c r="C238" s="35" t="s">
         <v>31</v>
       </c>
@@ -20461,9 +20462,9 @@
       <c r="H238" s="37"/>
       <c r="I238" s="38"/>
     </row>
-    <row r="239" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A239" s="548"/>
-      <c r="B239" s="566"/>
+    <row r="239" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A239" s="543"/>
+      <c r="B239" s="560"/>
       <c r="C239" s="35" t="s">
         <v>18</v>
       </c>
@@ -20474,9 +20475,9 @@
       <c r="H239" s="37"/>
       <c r="I239" s="38"/>
     </row>
-    <row r="240" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A240" s="548"/>
-      <c r="B240" s="566"/>
+    <row r="240" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A240" s="543"/>
+      <c r="B240" s="560"/>
       <c r="C240" s="35" t="s">
         <v>19</v>
       </c>
@@ -20487,9 +20488,9 @@
       <c r="H240" s="37"/>
       <c r="I240" s="38"/>
     </row>
-    <row r="241" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A241" s="548"/>
-      <c r="B241" s="566"/>
+    <row r="241" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A241" s="543"/>
+      <c r="B241" s="560"/>
       <c r="C241" s="35" t="s">
         <v>20</v>
       </c>
@@ -20500,9 +20501,9 @@
       <c r="H241" s="37"/>
       <c r="I241" s="38"/>
     </row>
-    <row r="242" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A242" s="548"/>
-      <c r="B242" s="566"/>
+    <row r="242" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A242" s="543"/>
+      <c r="B242" s="560"/>
       <c r="C242" s="35" t="s">
         <v>21</v>
       </c>
@@ -20513,9 +20514,9 @@
       <c r="H242" s="37"/>
       <c r="I242" s="38"/>
     </row>
-    <row r="243" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A243" s="548"/>
-      <c r="B243" s="567"/>
+    <row r="243" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A243" s="543"/>
+      <c r="B243" s="561"/>
       <c r="C243" s="39" t="s">
         <v>22</v>
       </c>
@@ -20526,9 +20527,9 @@
       <c r="H243" s="41"/>
       <c r="I243" s="42"/>
     </row>
-    <row r="244" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A244" s="548"/>
-      <c r="B244" s="545" t="s">
+    <row r="244" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A244" s="543"/>
+      <c r="B244" s="562" t="s">
         <v>17</v>
       </c>
       <c r="C244" s="4" t="s">
@@ -20541,9 +20542,9 @@
       <c r="H244" s="22"/>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A245" s="548"/>
-      <c r="B245" s="546"/>
+    <row r="245" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A245" s="543"/>
+      <c r="B245" s="563"/>
       <c r="C245" s="4" t="s">
         <v>36</v>
       </c>
@@ -20554,9 +20555,9 @@
       <c r="H245" s="22"/>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A246" s="548"/>
-      <c r="B246" s="546"/>
+    <row r="246" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A246" s="543"/>
+      <c r="B246" s="563"/>
       <c r="C246" s="4" t="s">
         <v>37</v>
       </c>
@@ -20567,9 +20568,9 @@
       <c r="H246" s="22"/>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A247" s="548"/>
-      <c r="B247" s="546"/>
+    <row r="247" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A247" s="543"/>
+      <c r="B247" s="563"/>
       <c r="C247" s="4" t="s">
         <v>38</v>
       </c>
@@ -20580,9 +20581,9 @@
       <c r="H247" s="22"/>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A248" s="548"/>
-      <c r="B248" s="546"/>
+    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A248" s="543"/>
+      <c r="B248" s="563"/>
       <c r="C248" s="4" t="s">
         <v>39</v>
       </c>
@@ -20593,9 +20594,9 @@
       <c r="H248" s="22"/>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="549"/>
-      <c r="B249" s="546"/>
+    <row r="249" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="544"/>
+      <c r="B249" s="563"/>
       <c r="C249" s="4" t="s">
         <v>40</v>
       </c>
@@ -20606,11 +20607,11 @@
       <c r="H249" s="22"/>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="560" t="s">
+    <row r="250" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="555" t="s">
         <v>49</v>
       </c>
-      <c r="B250" s="542" t="s">
+      <c r="B250" s="567" t="s">
         <v>23</v>
       </c>
       <c r="C250" s="31" t="s">
@@ -20623,9 +20624,9 @@
       <c r="H250" s="33"/>
       <c r="I250" s="34"/>
     </row>
-    <row r="251" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A251" s="561"/>
-      <c r="B251" s="543"/>
+    <row r="251" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A251" s="556"/>
+      <c r="B251" s="559"/>
       <c r="C251" s="35" t="s">
         <v>31</v>
       </c>
@@ -20636,9 +20637,9 @@
       <c r="H251" s="37"/>
       <c r="I251" s="38"/>
     </row>
-    <row r="252" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A252" s="561"/>
-      <c r="B252" s="543"/>
+    <row r="252" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A252" s="556"/>
+      <c r="B252" s="559"/>
       <c r="C252" s="35" t="s">
         <v>18</v>
       </c>
@@ -20649,9 +20650,9 @@
       <c r="H252" s="37"/>
       <c r="I252" s="38"/>
     </row>
-    <row r="253" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A253" s="561"/>
-      <c r="B253" s="543"/>
+    <row r="253" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A253" s="556"/>
+      <c r="B253" s="559"/>
       <c r="C253" s="35" t="s">
         <v>19</v>
       </c>
@@ -20662,9 +20663,9 @@
       <c r="H253" s="37"/>
       <c r="I253" s="38"/>
     </row>
-    <row r="254" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A254" s="561"/>
-      <c r="B254" s="543"/>
+    <row r="254" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A254" s="556"/>
+      <c r="B254" s="559"/>
       <c r="C254" s="35" t="s">
         <v>20</v>
       </c>
@@ -20675,9 +20676,9 @@
       <c r="H254" s="37"/>
       <c r="I254" s="38"/>
     </row>
-    <row r="255" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A255" s="561"/>
-      <c r="B255" s="543"/>
+    <row r="255" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A255" s="556"/>
+      <c r="B255" s="559"/>
       <c r="C255" s="35" t="s">
         <v>21</v>
       </c>
@@ -20688,9 +20689,9 @@
       <c r="H255" s="37"/>
       <c r="I255" s="38"/>
     </row>
-    <row r="256" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A256" s="561"/>
-      <c r="B256" s="544"/>
+    <row r="256" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A256" s="556"/>
+      <c r="B256" s="568"/>
       <c r="C256" s="39" t="s">
         <v>22</v>
       </c>
@@ -20701,9 +20702,9 @@
       <c r="H256" s="41"/>
       <c r="I256" s="42"/>
     </row>
-    <row r="257" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A257" s="561"/>
-      <c r="B257" s="545" t="s">
+    <row r="257" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A257" s="556"/>
+      <c r="B257" s="562" t="s">
         <v>23</v>
       </c>
       <c r="C257" s="4" t="s">
@@ -20716,9 +20717,9 @@
       <c r="H257" s="22"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A258" s="561"/>
-      <c r="B258" s="546"/>
+    <row r="258" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A258" s="556"/>
+      <c r="B258" s="563"/>
       <c r="C258" s="4" t="s">
         <v>36</v>
       </c>
@@ -20729,9 +20730,9 @@
       <c r="H258" s="22"/>
       <c r="I258" s="10"/>
     </row>
-    <row r="259" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A259" s="561"/>
-      <c r="B259" s="546"/>
+    <row r="259" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A259" s="556"/>
+      <c r="B259" s="563"/>
       <c r="C259" s="4" t="s">
         <v>37</v>
       </c>
@@ -20742,9 +20743,9 @@
       <c r="H259" s="22"/>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A260" s="561"/>
-      <c r="B260" s="546"/>
+    <row r="260" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A260" s="556"/>
+      <c r="B260" s="563"/>
       <c r="C260" s="4" t="s">
         <v>38</v>
       </c>
@@ -20755,9 +20756,9 @@
       <c r="H260" s="22"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A261" s="561"/>
-      <c r="B261" s="546"/>
+    <row r="261" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A261" s="556"/>
+      <c r="B261" s="563"/>
       <c r="C261" s="4" t="s">
         <v>39</v>
       </c>
@@ -20768,9 +20769,9 @@
       <c r="H261" s="22"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A262" s="561"/>
-      <c r="B262" s="546"/>
+    <row r="262" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A262" s="556"/>
+      <c r="B262" s="563"/>
       <c r="C262" s="4" t="s">
         <v>40</v>
       </c>
@@ -20781,9 +20782,9 @@
       <c r="H262" s="22"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A263" s="561"/>
-      <c r="B263" s="563" t="s">
+    <row r="263" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A263" s="556"/>
+      <c r="B263" s="564" t="s">
         <v>28</v>
       </c>
       <c r="C263" s="11" t="s">
@@ -20796,9 +20797,9 @@
       <c r="H263" s="23"/>
       <c r="I263" s="12"/>
     </row>
-    <row r="264" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A264" s="561"/>
-      <c r="B264" s="564"/>
+    <row r="264" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A264" s="556"/>
+      <c r="B264" s="565"/>
       <c r="C264" s="5" t="s">
         <v>24</v>
       </c>
@@ -20809,9 +20810,9 @@
       <c r="H264" s="24"/>
       <c r="I264" s="14"/>
     </row>
-    <row r="265" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A265" s="561"/>
-      <c r="B265" s="564"/>
+    <row r="265" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A265" s="556"/>
+      <c r="B265" s="565"/>
       <c r="C265" s="5" t="s">
         <v>25</v>
       </c>
@@ -20822,9 +20823,9 @@
       <c r="H265" s="24"/>
       <c r="I265" s="14"/>
     </row>
-    <row r="266" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A266" s="561"/>
-      <c r="B266" s="564"/>
+    <row r="266" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A266" s="556"/>
+      <c r="B266" s="565"/>
       <c r="C266" s="5" t="s">
         <v>27</v>
       </c>
@@ -20835,8 +20836,8 @@
       <c r="H266" s="24"/>
       <c r="I266" s="29"/>
     </row>
-    <row r="267" spans="1:9" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="561"/>
+    <row r="267" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="556"/>
       <c r="B267" s="47" t="s">
         <v>32</v>
       </c>
@@ -20850,9 +20851,9 @@
       <c r="H267" s="50"/>
       <c r="I267" s="51"/>
     </row>
-    <row r="268" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="561"/>
-      <c r="B268" s="550" t="s">
+    <row r="268" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="556"/>
+      <c r="B268" s="545" t="s">
         <v>17</v>
       </c>
       <c r="C268" s="52" t="s">
@@ -20865,9 +20866,9 @@
       <c r="H268" s="68"/>
       <c r="I268" s="54"/>
     </row>
-    <row r="269" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A269" s="561"/>
-      <c r="B269" s="551"/>
+    <row r="269" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A269" s="556"/>
+      <c r="B269" s="546"/>
       <c r="C269" s="55" t="s">
         <v>31</v>
       </c>
@@ -20878,9 +20879,9 @@
       <c r="H269" s="69"/>
       <c r="I269" s="57"/>
     </row>
-    <row r="270" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A270" s="561"/>
-      <c r="B270" s="552"/>
+    <row r="270" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A270" s="556"/>
+      <c r="B270" s="547"/>
       <c r="C270" s="55" t="s">
         <v>18</v>
       </c>
@@ -20891,9 +20892,9 @@
       <c r="H270" s="69"/>
       <c r="I270" s="57"/>
     </row>
-    <row r="271" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A271" s="561"/>
-      <c r="B271" s="552"/>
+    <row r="271" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A271" s="556"/>
+      <c r="B271" s="547"/>
       <c r="C271" s="55" t="s">
         <v>19</v>
       </c>
@@ -20904,9 +20905,9 @@
       <c r="H271" s="69"/>
       <c r="I271" s="57"/>
     </row>
-    <row r="272" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A272" s="561"/>
-      <c r="B272" s="552"/>
+    <row r="272" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A272" s="556"/>
+      <c r="B272" s="547"/>
       <c r="C272" s="55" t="s">
         <v>20</v>
       </c>
@@ -20917,9 +20918,9 @@
       <c r="H272" s="69"/>
       <c r="I272" s="57"/>
     </row>
-    <row r="273" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A273" s="561"/>
-      <c r="B273" s="552"/>
+    <row r="273" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A273" s="556"/>
+      <c r="B273" s="547"/>
       <c r="C273" s="55" t="s">
         <v>21</v>
       </c>
@@ -20930,9 +20931,9 @@
       <c r="H273" s="69"/>
       <c r="I273" s="57"/>
     </row>
-    <row r="274" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A274" s="561"/>
-      <c r="B274" s="553"/>
+    <row r="274" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A274" s="556"/>
+      <c r="B274" s="548"/>
       <c r="C274" s="58" t="s">
         <v>22</v>
       </c>
@@ -20943,9 +20944,9 @@
       <c r="H274" s="70"/>
       <c r="I274" s="60"/>
     </row>
-    <row r="275" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A275" s="561"/>
-      <c r="B275" s="554" t="s">
+    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A275" s="556"/>
+      <c r="B275" s="549" t="s">
         <v>17</v>
       </c>
       <c r="C275" s="7" t="s">
@@ -20958,9 +20959,9 @@
       <c r="H275" s="25"/>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A276" s="561"/>
-      <c r="B276" s="555"/>
+    <row r="276" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A276" s="556"/>
+      <c r="B276" s="550"/>
       <c r="C276" s="7" t="s">
         <v>36</v>
       </c>
@@ -20971,9 +20972,9 @@
       <c r="H276" s="25"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A277" s="561"/>
-      <c r="B277" s="555"/>
+    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A277" s="556"/>
+      <c r="B277" s="550"/>
       <c r="C277" s="7" t="s">
         <v>37</v>
       </c>
@@ -20984,9 +20985,9 @@
       <c r="H277" s="25"/>
       <c r="I277" s="17"/>
     </row>
-    <row r="278" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A278" s="561"/>
-      <c r="B278" s="555"/>
+    <row r="278" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A278" s="556"/>
+      <c r="B278" s="550"/>
       <c r="C278" s="7" t="s">
         <v>38</v>
       </c>
@@ -20997,9 +20998,9 @@
       <c r="H278" s="25"/>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A279" s="561"/>
-      <c r="B279" s="555"/>
+    <row r="279" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A279" s="556"/>
+      <c r="B279" s="550"/>
       <c r="C279" s="7" t="s">
         <v>39</v>
       </c>
@@ -21010,9 +21011,9 @@
       <c r="H279" s="25"/>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A280" s="562"/>
-      <c r="B280" s="555"/>
+    <row r="280" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="557"/>
+      <c r="B280" s="550"/>
       <c r="C280" s="7" t="s">
         <v>40</v>
       </c>
@@ -21023,11 +21024,11 @@
       <c r="H280" s="25"/>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="547" t="s">
+    <row r="281" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="542" t="s">
         <v>42</v>
       </c>
-      <c r="B281" s="556" t="s">
+      <c r="B281" s="551" t="s">
         <v>23</v>
       </c>
       <c r="C281" s="61" t="s">
@@ -21040,9 +21041,9 @@
       <c r="H281" s="71"/>
       <c r="I281" s="63"/>
     </row>
-    <row r="282" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A282" s="548"/>
-      <c r="B282" s="551"/>
+    <row r="282" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A282" s="543"/>
+      <c r="B282" s="546"/>
       <c r="C282" s="55" t="s">
         <v>31</v>
       </c>
@@ -21053,9 +21054,9 @@
       <c r="H282" s="69"/>
       <c r="I282" s="57"/>
     </row>
-    <row r="283" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A283" s="548"/>
-      <c r="B283" s="551"/>
+    <row r="283" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A283" s="543"/>
+      <c r="B283" s="546"/>
       <c r="C283" s="55" t="s">
         <v>18</v>
       </c>
@@ -21066,9 +21067,9 @@
       <c r="H283" s="69"/>
       <c r="I283" s="57"/>
     </row>
-    <row r="284" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A284" s="548"/>
-      <c r="B284" s="551"/>
+    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A284" s="543"/>
+      <c r="B284" s="546"/>
       <c r="C284" s="55" t="s">
         <v>19</v>
       </c>
@@ -21079,9 +21080,9 @@
       <c r="H284" s="69"/>
       <c r="I284" s="57"/>
     </row>
-    <row r="285" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A285" s="548"/>
-      <c r="B285" s="551"/>
+    <row r="285" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A285" s="543"/>
+      <c r="B285" s="546"/>
       <c r="C285" s="55" t="s">
         <v>20</v>
       </c>
@@ -21092,9 +21093,9 @@
       <c r="H285" s="69"/>
       <c r="I285" s="57"/>
     </row>
-    <row r="286" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A286" s="548"/>
-      <c r="B286" s="551"/>
+    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A286" s="543"/>
+      <c r="B286" s="546"/>
       <c r="C286" s="55" t="s">
         <v>21</v>
       </c>
@@ -21105,9 +21106,9 @@
       <c r="H286" s="69"/>
       <c r="I286" s="57"/>
     </row>
-    <row r="287" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A287" s="548"/>
-      <c r="B287" s="557"/>
+    <row r="287" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A287" s="543"/>
+      <c r="B287" s="552"/>
       <c r="C287" s="58" t="s">
         <v>22</v>
       </c>
@@ -21118,9 +21119,9 @@
       <c r="H287" s="70"/>
       <c r="I287" s="60"/>
     </row>
-    <row r="288" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A288" s="548"/>
-      <c r="B288" s="554" t="s">
+    <row r="288" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A288" s="543"/>
+      <c r="B288" s="549" t="s">
         <v>23</v>
       </c>
       <c r="C288" s="7" t="s">
@@ -21133,9 +21134,9 @@
       <c r="H288" s="25"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A289" s="548"/>
-      <c r="B289" s="555"/>
+    <row r="289" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A289" s="543"/>
+      <c r="B289" s="550"/>
       <c r="C289" s="7" t="s">
         <v>36</v>
       </c>
@@ -21146,9 +21147,9 @@
       <c r="H289" s="25"/>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A290" s="548"/>
-      <c r="B290" s="555"/>
+    <row r="290" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A290" s="543"/>
+      <c r="B290" s="550"/>
       <c r="C290" s="7" t="s">
         <v>37</v>
       </c>
@@ -21159,9 +21160,9 @@
       <c r="H290" s="25"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A291" s="548"/>
-      <c r="B291" s="555"/>
+    <row r="291" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A291" s="543"/>
+      <c r="B291" s="550"/>
       <c r="C291" s="7" t="s">
         <v>38</v>
       </c>
@@ -21172,9 +21173,9 @@
       <c r="H291" s="25"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A292" s="548"/>
-      <c r="B292" s="555"/>
+    <row r="292" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A292" s="543"/>
+      <c r="B292" s="550"/>
       <c r="C292" s="7" t="s">
         <v>39</v>
       </c>
@@ -21185,9 +21186,9 @@
       <c r="H292" s="25"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A293" s="548"/>
-      <c r="B293" s="555"/>
+    <row r="293" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A293" s="543"/>
+      <c r="B293" s="550"/>
       <c r="C293" s="7" t="s">
         <v>40</v>
       </c>
@@ -21198,9 +21199,9 @@
       <c r="H293" s="25"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A294" s="548"/>
-      <c r="B294" s="558" t="s">
+    <row r="294" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A294" s="543"/>
+      <c r="B294" s="553" t="s">
         <v>28</v>
       </c>
       <c r="C294" s="18" t="s">
@@ -21213,9 +21214,9 @@
       <c r="H294" s="26"/>
       <c r="I294" s="19"/>
     </row>
-    <row r="295" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A295" s="548"/>
-      <c r="B295" s="559"/>
+    <row r="295" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A295" s="543"/>
+      <c r="B295" s="554"/>
       <c r="C295" s="6" t="s">
         <v>24</v>
       </c>
@@ -21226,9 +21227,9 @@
       <c r="H295" s="27"/>
       <c r="I295" s="21"/>
     </row>
-    <row r="296" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A296" s="548"/>
-      <c r="B296" s="559"/>
+    <row r="296" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A296" s="543"/>
+      <c r="B296" s="554"/>
       <c r="C296" s="6" t="s">
         <v>25</v>
       </c>
@@ -21239,9 +21240,9 @@
       <c r="H296" s="27"/>
       <c r="I296" s="21"/>
     </row>
-    <row r="297" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A297" s="548"/>
-      <c r="B297" s="559"/>
+    <row r="297" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A297" s="543"/>
+      <c r="B297" s="554"/>
       <c r="C297" s="6" t="s">
         <v>27</v>
       </c>
@@ -21252,8 +21253,8 @@
       <c r="H297" s="27"/>
       <c r="I297" s="28"/>
     </row>
-    <row r="298" spans="1:9" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A298" s="548"/>
+    <row r="298" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="543"/>
       <c r="B298" s="64" t="s">
         <v>32</v>
       </c>
@@ -21267,75 +21268,70 @@
       <c r="H298" s="72"/>
       <c r="I298" s="67"/>
     </row>
-    <row r="299" spans="1:9" ht="12.9" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="548"/>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A300" s="548"/>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A301" s="548"/>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A302" s="548"/>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A303" s="548"/>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A304" s="548"/>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" s="548"/>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" s="548"/>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" s="548"/>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" s="548"/>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" s="548"/>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" s="548"/>
-    </row>
-    <row r="311" spans="1:1" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="549"/>
-    </row>
-    <row r="312" spans="1:1" ht="12.9" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="299" spans="1:9" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="543"/>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" s="543"/>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" s="543"/>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="543"/>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" s="543"/>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" s="543"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="543"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="543"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="543"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="543"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="543"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="543"/>
+    </row>
+    <row r="311" spans="1:1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="544"/>
+    </row>
+    <row r="312" spans="1:1" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A95:A125"/>
-    <mergeCell ref="B82:B88"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="A64:A94"/>
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A3:A32"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="J3:J9"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A33:A63"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B250:B256"/>
+    <mergeCell ref="B257:B262"/>
+    <mergeCell ref="A281:A311"/>
+    <mergeCell ref="B268:B274"/>
+    <mergeCell ref="B275:B280"/>
+    <mergeCell ref="B281:B287"/>
+    <mergeCell ref="B288:B293"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="A250:A280"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="B188:B194"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="A219:A249"/>
+    <mergeCell ref="B206:B212"/>
+    <mergeCell ref="B213:B218"/>
+    <mergeCell ref="B219:B225"/>
+    <mergeCell ref="B226:B231"/>
+    <mergeCell ref="B232:B235"/>
+    <mergeCell ref="A188:A218"/>
+    <mergeCell ref="B201:B204"/>
+    <mergeCell ref="B237:B243"/>
+    <mergeCell ref="B244:B249"/>
     <mergeCell ref="B126:B132"/>
     <mergeCell ref="B133:B138"/>
     <mergeCell ref="A157:A187"/>
@@ -21348,28 +21344,33 @@
     <mergeCell ref="B139:B142"/>
     <mergeCell ref="B175:B181"/>
     <mergeCell ref="B182:B187"/>
-    <mergeCell ref="B188:B194"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="A219:A249"/>
-    <mergeCell ref="B206:B212"/>
-    <mergeCell ref="B213:B218"/>
-    <mergeCell ref="B219:B225"/>
-    <mergeCell ref="B226:B231"/>
-    <mergeCell ref="B232:B235"/>
-    <mergeCell ref="A188:A218"/>
-    <mergeCell ref="B201:B204"/>
-    <mergeCell ref="B237:B243"/>
-    <mergeCell ref="B244:B249"/>
-    <mergeCell ref="B250:B256"/>
-    <mergeCell ref="B257:B262"/>
-    <mergeCell ref="A281:A311"/>
-    <mergeCell ref="B268:B274"/>
-    <mergeCell ref="B275:B280"/>
-    <mergeCell ref="B281:B287"/>
-    <mergeCell ref="B288:B293"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="A250:A280"/>
-    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="J3:J9"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A33:A63"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A3:A32"/>
+    <mergeCell ref="B64:B70"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="A95:A125"/>
+    <mergeCell ref="B82:B88"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="A64:A94"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B71:B76"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -21389,17 +21390,17 @@
       <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="13" width="9" style="74" customWidth="1"/>
     <col min="14" max="14" width="9" style="288" customWidth="1"/>
     <col min="15" max="21" width="9" style="74" customWidth="1"/>
     <col min="22" max="22" width="5" style="74" customWidth="1"/>
-    <col min="23" max="23" width="8.53515625" style="74" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.23046875" style="74"/>
+    <col min="23" max="23" width="8.54296875" style="74" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.26953125" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="282" t="s">
         <v>226</v>
       </c>
@@ -21420,7 +21421,7 @@
       <c r="P1" s="280"/>
       <c r="Q1" s="280"/>
       <c r="R1" s="472" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S1" s="280"/>
       <c r="T1" s="280"/>
@@ -21442,65 +21443,65 @@
       <c r="AQ1" s="191"/>
       <c r="AR1" s="191"/>
     </row>
-    <row r="2" spans="1:44" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="177"/>
       <c r="B2" s="256" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C2" s="256" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D2" s="256" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E2" s="256" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F2" s="256" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G2" s="256" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H2" s="256" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I2" s="256" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J2" s="256" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K2" s="256" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L2" s="256" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M2" s="256" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N2" s="256" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O2" s="256" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P2" s="256" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q2" s="256" t="str">
         <f>P2</f>
         <v>Electricity</v>
       </c>
       <c r="R2" s="467" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S2" s="256" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T2" s="256" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U2" s="507" t="str">
         <f>T2</f>
@@ -21529,7 +21530,7 @@
       <c r="AQ2" s="191"/>
       <c r="AR2" s="191"/>
     </row>
-    <row r="3" spans="1:44" s="73" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" s="73" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="257"/>
       <c r="B3" s="258">
         <v>2008</v>
@@ -21613,7 +21614,7 @@
       <c r="AQ3" s="191"/>
       <c r="AR3" s="191"/>
     </row>
-    <row r="4" spans="1:44" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:44" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="181" t="s">
         <v>74</v>
       </c>
@@ -21704,7 +21705,7 @@
       <c r="AQ4" s="192"/>
       <c r="AR4" s="192"/>
     </row>
-    <row r="5" spans="1:44" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:44" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="181" t="s">
         <v>45</v>
       </c>
@@ -21795,7 +21796,7 @@
       <c r="AQ5" s="192"/>
       <c r="AR5" s="192"/>
     </row>
-    <row r="6" spans="1:44" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:44" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="181" t="s">
         <v>72</v>
       </c>
@@ -21886,7 +21887,7 @@
       <c r="AQ6" s="192"/>
       <c r="AR6" s="192"/>
     </row>
-    <row r="7" spans="1:44" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:44" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="181" t="s">
         <v>76</v>
       </c>
@@ -21977,7 +21978,7 @@
       <c r="AQ7" s="192"/>
       <c r="AR7" s="192"/>
     </row>
-    <row r="8" spans="1:44" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:44" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="181" t="s">
         <v>139</v>
       </c>
@@ -22068,7 +22069,7 @@
       <c r="AQ8" s="192"/>
       <c r="AR8" s="192"/>
     </row>
-    <row r="9" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="181" t="s">
         <v>69</v>
       </c>
@@ -22160,7 +22161,7 @@
       <c r="AQ9" s="192"/>
       <c r="AR9" s="192"/>
     </row>
-    <row r="10" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="181" t="s">
         <v>71</v>
       </c>
@@ -22252,7 +22253,7 @@
       <c r="AQ10" s="192"/>
       <c r="AR10" s="192"/>
     </row>
-    <row r="11" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="181" t="s">
         <v>46</v>
       </c>
@@ -22344,7 +22345,7 @@
       <c r="AQ11" s="192"/>
       <c r="AR11" s="192"/>
     </row>
-    <row r="12" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="181" t="s">
         <v>49</v>
       </c>
@@ -22436,7 +22437,7 @@
       <c r="AQ12" s="192"/>
       <c r="AR12" s="192"/>
     </row>
-    <row r="13" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="181" t="s">
         <v>16</v>
       </c>
@@ -22529,7 +22530,7 @@
       <c r="AQ13" s="192"/>
       <c r="AR13" s="192"/>
     </row>
-    <row r="14" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="181" t="s">
         <v>79</v>
       </c>
@@ -22621,7 +22622,7 @@
       <c r="AQ14" s="192"/>
       <c r="AR14" s="192"/>
     </row>
-    <row r="15" spans="1:44" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:44" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="181" t="s">
         <v>73</v>
       </c>
@@ -22712,7 +22713,7 @@
       <c r="AQ15" s="192"/>
       <c r="AR15" s="192"/>
     </row>
-    <row r="16" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="181" t="s">
         <v>44</v>
       </c>
@@ -22804,7 +22805,7 @@
       <c r="AQ16" s="192"/>
       <c r="AR16" s="192"/>
     </row>
-    <row r="17" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="181" t="s">
         <v>47</v>
       </c>
@@ -22896,7 +22897,7 @@
       <c r="AQ17" s="192"/>
       <c r="AR17" s="192"/>
     </row>
-    <row r="18" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="181" t="s">
         <v>43</v>
       </c>
@@ -22988,7 +22989,7 @@
       <c r="AQ18" s="192"/>
       <c r="AR18" s="192"/>
     </row>
-    <row r="19" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="182" t="s">
         <v>26</v>
       </c>
@@ -23078,7 +23079,7 @@
       <c r="AQ19" s="192"/>
       <c r="AR19" s="192"/>
     </row>
-    <row r="20" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="188" t="s">
         <v>140</v>
       </c>
@@ -23183,7 +23184,7 @@
       <c r="AQ20" s="192"/>
       <c r="AR20" s="192"/>
     </row>
-    <row r="21" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="188" t="s">
         <v>141</v>
       </c>
@@ -23288,7 +23289,7 @@
       <c r="AQ21" s="192"/>
       <c r="AR21" s="192"/>
     </row>
-    <row r="22" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="188"/>
       <c r="B22" s="189" t="s">
         <v>142</v>
@@ -23355,7 +23356,7 @@
       <c r="AQ22" s="192"/>
       <c r="AR22" s="192"/>
     </row>
-    <row r="23" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="188"/>
       <c r="B23" s="187"/>
       <c r="C23" s="187"/>
@@ -23398,7 +23399,7 @@
       <c r="AQ23" s="192"/>
       <c r="AR23" s="192"/>
     </row>
-    <row r="24" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="188"/>
       <c r="X24" s="516"/>
       <c r="Y24" s="517"/>
@@ -23421,9 +23422,9 @@
       <c r="AQ24" s="192"/>
       <c r="AR24" s="192"/>
     </row>
-    <row r="25" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J25" s="504" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X25" s="519"/>
       <c r="Y25" s="520"/>
@@ -23446,19 +23447,19 @@
       <c r="AQ25" s="192"/>
       <c r="AR25" s="192"/>
     </row>
-    <row r="26" spans="1:44" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:44" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N26" s="289"/>
       <c r="X26" s="117" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:44" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:44" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N27" s="289"/>
     </row>
-    <row r="28" spans="1:44" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:44" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N28" s="289"/>
     </row>
-    <row r="29" spans="1:44" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:44" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="118"/>
       <c r="C29" s="118"/>
       <c r="D29" s="118"/>
@@ -23469,7 +23470,7 @@
       <c r="I29" s="118"/>
       <c r="N29" s="289"/>
     </row>
-    <row r="30" spans="1:44" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:44" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="118"/>
       <c r="C30" s="118"/>
       <c r="D30" s="118"/>
@@ -23480,7 +23481,7 @@
       <c r="I30" s="118"/>
       <c r="N30" s="289"/>
     </row>
-    <row r="31" spans="1:44" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:44" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="118"/>
       <c r="C31" s="118"/>
       <c r="D31" s="118"/>
@@ -23491,7 +23492,7 @@
       <c r="I31" s="118"/>
       <c r="N31" s="289"/>
     </row>
-    <row r="32" spans="1:44" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:44" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="118"/>
       <c r="C32" s="118"/>
       <c r="D32" s="118"/>
@@ -23502,7 +23503,7 @@
       <c r="I32" s="118"/>
       <c r="N32" s="289"/>
     </row>
-    <row r="33" spans="2:14" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:14" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="118"/>
       <c r="C33" s="118"/>
       <c r="D33" s="118"/>
@@ -23513,7 +23514,7 @@
       <c r="I33" s="118"/>
       <c r="N33" s="289"/>
     </row>
-    <row r="34" spans="2:14" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:14" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="118"/>
       <c r="C34" s="118"/>
       <c r="D34" s="118"/>
@@ -23524,7 +23525,7 @@
       <c r="I34" s="118"/>
       <c r="N34" s="289"/>
     </row>
-    <row r="35" spans="2:14" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:14" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="118"/>
       <c r="C35" s="118"/>
       <c r="D35" s="118"/>
@@ -23535,7 +23536,7 @@
       <c r="I35" s="118"/>
       <c r="N35" s="289"/>
     </row>
-    <row r="36" spans="2:14" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:14" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="118"/>
       <c r="C36" s="118"/>
       <c r="D36" s="118"/>
@@ -23546,7 +23547,7 @@
       <c r="I36" s="118"/>
       <c r="N36" s="289"/>
     </row>
-    <row r="37" spans="2:14" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:14" s="117" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="118"/>
       <c r="C37" s="118"/>
       <c r="D37" s="118"/>
@@ -23576,22 +23577,25 @@
   </sheetPr>
   <dimension ref="A1:AE64"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.69140625" style="74" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" style="74" customWidth="1"/>
     <col min="2" max="18" width="9" style="74" customWidth="1"/>
     <col min="19" max="19" width="7" style="74" customWidth="1"/>
-    <col min="20" max="20" width="10.69140625" style="74" customWidth="1"/>
+    <col min="20" max="20" width="10.7265625" style="74" customWidth="1"/>
     <col min="21" max="21" width="9" style="74" customWidth="1"/>
-    <col min="22" max="22" width="17.84375" style="74" customWidth="1"/>
-    <col min="23" max="16384" width="11.23046875" style="74"/>
+    <col min="22" max="22" width="17.81640625" style="74" customWidth="1"/>
+    <col min="23" max="16384" width="11.26953125" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="282" t="s">
         <v>249</v>
       </c>
@@ -23626,7 +23630,7 @@
       <c r="AD1" s="318"/>
       <c r="AE1" s="318"/>
     </row>
-    <row r="2" spans="1:31" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="177"/>
       <c r="B2" s="256" t="s">
         <v>222</v>
@@ -23681,7 +23685,7 @@
       <c r="U2" s="319"/>
       <c r="V2" s="319"/>
       <c r="W2" s="531" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="X2" s="531"/>
       <c r="Y2" s="531"/>
@@ -23692,7 +23696,7 @@
       <c r="AD2" s="531"/>
       <c r="AE2" s="318"/>
     </row>
-    <row r="3" spans="1:31" s="73" customFormat="1" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="73" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="257"/>
       <c r="B3" s="258">
         <v>2008</v>
@@ -23757,7 +23761,7 @@
       <c r="AD3" s="531"/>
       <c r="AE3" s="318"/>
     </row>
-    <row r="4" spans="1:31" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="168" t="s">
         <v>51</v>
       </c>
@@ -23824,7 +23828,7 @@
       <c r="AD4" s="531"/>
       <c r="AE4" s="322"/>
     </row>
-    <row r="5" spans="1:31" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="168" t="s">
         <v>52</v>
       </c>
@@ -23891,7 +23895,7 @@
       <c r="AD5" s="531"/>
       <c r="AE5" s="322"/>
     </row>
-    <row r="6" spans="1:31" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="127" t="s">
         <v>53</v>
       </c>
@@ -23924,8 +23928,7 @@
         <v>10.013091663284303</v>
       </c>
       <c r="I6" s="94">
-        <f t="shared" si="0"/>
-        <v>7.8965691016576711</v>
+        <v>7.53573193782145</v>
       </c>
       <c r="J6" s="94">
         <f t="shared" si="0"/>
@@ -23944,20 +23947,18 @@
         <v>11.870445503292055</v>
       </c>
       <c r="N6" s="304">
-        <f t="shared" ref="N6:Q6" si="1">M6</f>
-        <v>11.870445503292055</v>
-      </c>
-      <c r="O6" s="304">
-        <f t="shared" si="1"/>
-        <v>11.870445503292055</v>
+        <v>8.4663506063530605</v>
+      </c>
+      <c r="O6" s="94">
+        <f>N6+((P6-N6)/2)</f>
+        <v>8.8336126694570396</v>
       </c>
       <c r="P6" s="304">
-        <f t="shared" si="1"/>
-        <v>11.870445503292055</v>
+        <v>9.2008747325610205</v>
       </c>
       <c r="Q6" s="304">
-        <f t="shared" si="1"/>
-        <v>11.870445503292055</v>
+        <f t="shared" ref="N6:Q6" si="1">P6</f>
+        <v>9.2008747325610205</v>
       </c>
       <c r="R6" s="315"/>
       <c r="S6" s="321"/>
@@ -23974,7 +23975,7 @@
       <c r="AD6" s="531"/>
       <c r="AE6" s="322"/>
     </row>
-    <row r="7" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="127" t="s">
         <v>54</v>
       </c>
@@ -24007,8 +24008,7 @@
         <v>27.680719057093917</v>
       </c>
       <c r="I7" s="94">
-        <f t="shared" si="2"/>
-        <v>23.271149719995019</v>
+        <v>21.743783166032401</v>
       </c>
       <c r="J7" s="94">
         <f t="shared" si="2"/>
@@ -24027,16 +24027,18 @@
         <v>14.746519228144209</v>
       </c>
       <c r="N7" s="94">
-        <v>23.26</v>
+        <v>28.563886760900701</v>
       </c>
       <c r="O7" s="94">
-        <v>23.26</v>
+        <f>N7+((P7-N7)/2)</f>
+        <v>32.518733903989599</v>
       </c>
       <c r="P7" s="94">
-        <v>23.26</v>
+        <v>36.473581047078497</v>
       </c>
       <c r="Q7" s="94">
-        <v>23.26</v>
+        <f>P7</f>
+        <v>36.473581047078497</v>
       </c>
       <c r="R7" s="315"/>
       <c r="S7" s="321"/>
@@ -24053,7 +24055,7 @@
       <c r="AD7" s="531"/>
       <c r="AE7" s="288"/>
     </row>
-    <row r="8" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="127" t="str">
         <f>A5&amp;"_CCS"</f>
         <v>lign_CCS</v>
@@ -24137,7 +24139,7 @@
       <c r="AD8" s="531"/>
       <c r="AE8" s="288"/>
     </row>
-    <row r="9" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="127" t="str">
         <f>A6&amp;"_CCS"</f>
         <v>coal_CCS</v>
@@ -24172,7 +24174,7 @@
       </c>
       <c r="I9" s="94">
         <f t="shared" si="4"/>
-        <v>7.8965691016576711</v>
+        <v>7.53573193782145</v>
       </c>
       <c r="J9" s="94">
         <f t="shared" si="4"/>
@@ -24192,19 +24194,19 @@
       </c>
       <c r="N9" s="94">
         <f t="shared" si="4"/>
-        <v>11.870445503292055</v>
+        <v>8.4663506063530605</v>
       </c>
       <c r="O9" s="94">
         <f t="shared" si="4"/>
-        <v>11.870445503292055</v>
+        <v>8.8336126694570396</v>
       </c>
       <c r="P9" s="94">
         <f t="shared" si="4"/>
-        <v>11.870445503292055</v>
+        <v>9.2008747325610205</v>
       </c>
       <c r="Q9" s="94">
         <f t="shared" si="4"/>
-        <v>11.870445503292055</v>
+        <v>9.2008747325610205</v>
       </c>
       <c r="R9" s="315"/>
       <c r="S9" s="321"/>
@@ -24221,7 +24223,7 @@
       <c r="AD9" s="531"/>
       <c r="AE9" s="288"/>
     </row>
-    <row r="10" spans="1:31" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="127" t="str">
         <f>A7&amp;"_CCS"</f>
         <v>CCGT_CCS</v>
@@ -24256,7 +24258,7 @@
       </c>
       <c r="I10" s="94">
         <f t="shared" si="4"/>
-        <v>23.271149719995019</v>
+        <v>21.743783166032401</v>
       </c>
       <c r="J10" s="94">
         <f t="shared" si="4"/>
@@ -24276,24 +24278,24 @@
       </c>
       <c r="N10" s="94">
         <f t="shared" si="4"/>
-        <v>23.26</v>
+        <v>28.563886760900701</v>
       </c>
       <c r="O10" s="94">
         <f t="shared" si="4"/>
-        <v>23.26</v>
+        <v>32.518733903989599</v>
       </c>
       <c r="P10" s="94">
         <f t="shared" si="4"/>
-        <v>23.26</v>
+        <v>36.473581047078497</v>
       </c>
       <c r="Q10" s="94">
         <f t="shared" si="4"/>
-        <v>23.26</v>
+        <v>36.473581047078497</v>
       </c>
       <c r="R10" s="316"/>
       <c r="S10" s="322"/>
       <c r="T10" s="296" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U10" s="296"/>
       <c r="V10" s="296"/>
@@ -24307,9 +24309,9 @@
       <c r="AD10" s="531"/>
       <c r="AE10" s="322"/>
     </row>
-    <row r="11" spans="1:31" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="303" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B11" s="306">
         <v>150</v>
@@ -24377,9 +24379,9 @@
       <c r="AD11" s="531"/>
       <c r="AE11" s="322"/>
     </row>
-    <row r="12" spans="1:31" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" s="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="303" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" s="306">
         <v>150</v>
@@ -24447,7 +24449,7 @@
       <c r="AD12" s="531"/>
       <c r="AE12" s="322"/>
     </row>
-    <row r="13" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="127" t="s">
         <v>50</v>
       </c>
@@ -24481,7 +24483,7 @@
       </c>
       <c r="I13" s="94">
         <f t="shared" si="5"/>
-        <v>23.271149719995019</v>
+        <v>21.743783166032401</v>
       </c>
       <c r="J13" s="94">
         <f t="shared" si="5"/>
@@ -24501,24 +24503,24 @@
       </c>
       <c r="N13" s="94">
         <f>N10</f>
-        <v>23.26</v>
+        <v>28.563886760900701</v>
       </c>
       <c r="O13" s="94">
         <f t="shared" ref="O13:Q13" si="6">O10</f>
-        <v>23.26</v>
+        <v>32.518733903989599</v>
       </c>
       <c r="P13" s="94">
         <f t="shared" si="6"/>
-        <v>23.26</v>
+        <v>36.473581047078497</v>
       </c>
       <c r="Q13" s="94">
         <f t="shared" si="6"/>
-        <v>23.26</v>
+        <v>36.473581047078497</v>
       </c>
       <c r="R13" s="315"/>
       <c r="S13" s="288"/>
       <c r="T13" s="324" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U13" s="319"/>
       <c r="V13" s="319"/>
@@ -24532,9 +24534,9 @@
       <c r="AD13" s="531"/>
       <c r="AE13" s="288"/>
     </row>
-    <row r="14" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="303" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14" s="306">
         <v>-130</v>
@@ -24587,7 +24589,7 @@
       <c r="R14" s="315"/>
       <c r="S14" s="288"/>
       <c r="T14" s="319" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U14" s="319"/>
       <c r="V14" s="319"/>
@@ -24601,7 +24603,7 @@
       <c r="AD14" s="531"/>
       <c r="AE14" s="288"/>
     </row>
-    <row r="15" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="171" t="s">
         <v>55</v>
       </c>
@@ -24686,7 +24688,7 @@
       <c r="AD15" s="531"/>
       <c r="AE15" s="288"/>
     </row>
-    <row r="16" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S16" s="288"/>
       <c r="T16" s="319"/>
       <c r="U16" s="319"/>
@@ -24701,9 +24703,9 @@
       <c r="AD16" s="531"/>
       <c r="AE16" s="288"/>
     </row>
-    <row r="17" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="163" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S17" s="288"/>
       <c r="T17" s="319"/>
@@ -24719,7 +24721,7 @@
       <c r="AD17" s="531"/>
       <c r="AE17" s="288"/>
     </row>
-    <row r="18" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="74" t="s">
         <v>250</v>
       </c>
@@ -24770,7 +24772,7 @@
       <c r="AD18" s="531"/>
       <c r="AE18" s="288"/>
     </row>
-    <row r="19" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="74" t="s">
         <v>251</v>
       </c>
@@ -24832,7 +24834,7 @@
       <c r="AD19" s="531"/>
       <c r="AE19" s="288"/>
     </row>
-    <row r="20" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="74" t="s">
         <v>252</v>
       </c>
@@ -24894,7 +24896,7 @@
       <c r="AD20" s="319"/>
       <c r="AE20" s="288"/>
     </row>
-    <row r="21" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="293"/>
       <c r="C21" s="293"/>
       <c r="D21" s="293"/>
@@ -24920,9 +24922,9 @@
       <c r="AD21" s="319"/>
       <c r="AE21" s="288"/>
     </row>
-    <row r="22" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="163" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B22" s="293"/>
       <c r="C22" s="293"/>
@@ -24949,7 +24951,7 @@
       <c r="AD22" s="319"/>
       <c r="AE22" s="288"/>
     </row>
-    <row r="23" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="74" t="s">
         <v>252</v>
       </c>
@@ -24998,7 +25000,7 @@
       <c r="Z23" s="307"/>
       <c r="AA23" s="307"/>
     </row>
-    <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="305"/>
       <c r="C24" s="305"/>
       <c r="D24" s="305"/>
@@ -25020,7 +25022,7 @@
       <c r="Z24" s="307"/>
       <c r="AA24" s="307"/>
     </row>
-    <row r="25" spans="1:31" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
       <c r="T25" s="307"/>
       <c r="U25" s="307"/>
       <c r="V25" s="307"/>
@@ -25030,7 +25032,7 @@
       <c r="Z25" s="307"/>
       <c r="AA25" s="307"/>
     </row>
-    <row r="26" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="282" t="s">
         <v>138</v>
       </c>
@@ -25052,7 +25054,7 @@
       <c r="Q26" s="283"/>
       <c r="R26" s="281"/>
       <c r="T26" s="267" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U26" s="308"/>
       <c r="V26" s="308"/>
@@ -25065,7 +25067,7 @@
       <c r="AC26" s="268"/>
       <c r="AD26" s="268"/>
     </row>
-    <row r="27" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="177"/>
       <c r="B27" s="256" t="s">
         <v>222</v>
@@ -25130,7 +25132,7 @@
       <c r="AC27" s="523"/>
       <c r="AD27" s="524"/>
     </row>
-    <row r="28" spans="1:31" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="257"/>
       <c r="B28" s="258">
         <v>2008</v>
@@ -25193,7 +25195,7 @@
       <c r="AC28" s="526"/>
       <c r="AD28" s="527"/>
     </row>
-    <row r="29" spans="1:31" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="92" t="s">
         <v>213</v>
       </c>
@@ -25258,7 +25260,7 @@
       <c r="AC29" s="526"/>
       <c r="AD29" s="527"/>
     </row>
-    <row r="30" spans="1:31" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="93" t="s">
         <v>49</v>
       </c>
@@ -25339,7 +25341,7 @@
       <c r="AC30" s="526"/>
       <c r="AD30" s="527"/>
     </row>
-    <row r="31" spans="1:31" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="93"/>
       <c r="B31" s="284"/>
       <c r="C31" s="284"/>
@@ -25370,7 +25372,7 @@
       <c r="AC31" s="526"/>
       <c r="AD31" s="527"/>
     </row>
-    <row r="32" spans="1:31" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="93"/>
       <c r="B32" s="284"/>
       <c r="C32" s="284"/>
@@ -25401,7 +25403,7 @@
       <c r="AC32" s="526"/>
       <c r="AD32" s="527"/>
     </row>
-    <row r="33" spans="1:30" s="176" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:30" s="176" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="93"/>
       <c r="B33" s="284"/>
       <c r="C33" s="284"/>
@@ -25432,7 +25434,7 @@
       <c r="AC33" s="526"/>
       <c r="AD33" s="527"/>
     </row>
-    <row r="34" spans="1:30" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:30" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="93"/>
       <c r="B34" s="284"/>
       <c r="C34" s="284"/>
@@ -25463,7 +25465,7 @@
       <c r="AC34" s="526"/>
       <c r="AD34" s="527"/>
     </row>
-    <row r="35" spans="1:30" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:30" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="93"/>
       <c r="B35" s="284"/>
       <c r="C35" s="284"/>
@@ -25494,7 +25496,7 @@
       <c r="AC35" s="526"/>
       <c r="AD35" s="527"/>
     </row>
-    <row r="36" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="173"/>
       <c r="B36" s="174"/>
       <c r="C36" s="174"/>
@@ -25525,7 +25527,7 @@
       <c r="AC36" s="526"/>
       <c r="AD36" s="527"/>
     </row>
-    <row r="37" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="175" t="s">
         <v>120</v>
       </c>
@@ -25541,7 +25543,7 @@
       <c r="AC37" s="526"/>
       <c r="AD37" s="527"/>
     </row>
-    <row r="38" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="261" t="s">
         <v>230</v>
       </c>
@@ -25596,7 +25598,7 @@
       <c r="AC38" s="529"/>
       <c r="AD38" s="530"/>
     </row>
-    <row r="39" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T39" s="307"/>
       <c r="U39" s="307"/>
       <c r="V39" s="307"/>
@@ -25609,7 +25611,7 @@
       <c r="AC39" s="307"/>
       <c r="AD39" s="307"/>
     </row>
-    <row r="40" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G40" s="255"/>
       <c r="H40" s="255"/>
       <c r="I40" s="255"/>
@@ -25634,9 +25636,9 @@
       <c r="AC40" s="307"/>
       <c r="AD40" s="307"/>
     </row>
-    <row r="43" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="282" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B43" s="280"/>
       <c r="C43" s="280"/>
@@ -25657,10 +25659,10 @@
       <c r="R43" s="281"/>
       <c r="T43" s="296"/>
       <c r="U43" s="296" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="177"/>
       <c r="B44" s="256" t="s">
         <v>222</v>
@@ -25714,13 +25716,13 @@
         <v>222</v>
       </c>
       <c r="T44" s="296" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U44" s="296" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="257"/>
       <c r="B45" s="258">
         <v>2008</v>
@@ -25780,7 +25782,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="92" t="s">
         <v>74</v>
       </c>
@@ -25847,7 +25849,7 @@
         <v>0.43020957199686038</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="93" t="s">
         <v>45</v>
       </c>
@@ -25914,7 +25916,7 @@
         <v>0.41475745085600652</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="93" t="s">
         <v>76</v>
       </c>
@@ -25981,7 +25983,7 @@
         <v>0.54020896769744209</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="93" t="s">
         <v>139</v>
       </c>
@@ -26048,7 +26050,7 @@
         <v>0.26653506452717701</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="93" t="s">
         <v>46</v>
       </c>
@@ -26115,7 +26117,7 @@
         <v>0.47223069141484209</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="93" t="s">
         <v>16</v>
       </c>
@@ -26182,7 +26184,7 @@
         <v>0.53615524264645087</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="93" t="s">
         <v>79</v>
       </c>
@@ -26249,7 +26251,7 @@
         <v>0.52584110792943239</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="93" t="s">
         <v>44</v>
       </c>
@@ -26316,7 +26318,7 @@
         <v>0.82973239528249731</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="93" t="s">
         <v>47</v>
       </c>
@@ -26383,7 +26385,7 @@
         <v>2.7314506620758383</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="93" t="s">
         <v>43</v>
       </c>
@@ -26450,7 +26452,7 @@
         <v>0.40521460525790987</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="93" t="s">
         <v>26</v>
       </c>
@@ -26517,7 +26519,7 @@
         <v>0.56879415532251276</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="93" t="s">
         <v>72</v>
       </c>
@@ -26584,7 +26586,7 @@
         <v>0.89513111060886152</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="93" t="s">
         <v>49</v>
       </c>
@@ -26651,7 +26653,7 @@
         <v>0.23780796440636878</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:21" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A59" s="93"/>
       <c r="B59" s="284"/>
       <c r="C59" s="284"/>
@@ -26676,7 +26678,7 @@
         <v>0.44642374941577428</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="93"/>
       <c r="B60" s="284"/>
       <c r="C60" s="284"/>
@@ -26696,7 +26698,7 @@
       <c r="Q60" s="284"/>
       <c r="R60" s="249"/>
     </row>
-    <row r="61" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="93"/>
       <c r="B61" s="284"/>
       <c r="C61" s="284"/>
@@ -26716,7 +26718,7 @@
       <c r="Q61" s="284"/>
       <c r="R61" s="249"/>
     </row>
-    <row r="62" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="93"/>
       <c r="B62" s="284"/>
       <c r="C62" s="284"/>
@@ -26736,7 +26738,7 @@
       <c r="Q62" s="284"/>
       <c r="R62" s="249"/>
     </row>
-    <row r="63" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="173"/>
       <c r="B63" s="174"/>
       <c r="C63" s="174"/>
@@ -26756,7 +26758,7 @@
       <c r="Q63" s="174"/>
       <c r="R63" s="250"/>
     </row>
-    <row r="64" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="175" t="s">
         <v>120</v>
       </c>
@@ -26784,16 +26786,16 @@
       <selection activeCell="G3" sqref="G3:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.23046875" style="74" customWidth="1"/>
-    <col min="2" max="2" width="7.23046875" style="74" customWidth="1"/>
-    <col min="3" max="6" width="14.53515625" style="74" customWidth="1"/>
-    <col min="7" max="7" width="13.53515625" style="74" customWidth="1"/>
-    <col min="8" max="16384" width="11.23046875" style="74"/>
+    <col min="1" max="1" width="6.26953125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="74" customWidth="1"/>
+    <col min="3" max="6" width="14.54296875" style="74" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="74" customWidth="1"/>
+    <col min="8" max="16384" width="11.26953125" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="254" t="s">
         <v>123</v>
       </c>
@@ -26816,7 +26818,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="254"/>
       <c r="B2" s="125"/>
       <c r="C2" s="140" t="s">
@@ -26855,7 +26857,7 @@
         <v>4840</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="254" t="s">
         <v>12</v>
       </c>
@@ -26898,7 +26900,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="254" t="s">
         <v>13</v>
       </c>
@@ -26941,7 +26943,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="254" t="s">
         <v>14</v>
       </c>
@@ -26984,7 +26986,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="254" t="s">
         <v>0</v>
       </c>
@@ -27027,7 +27029,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="254" t="s">
         <v>6</v>
       </c>
@@ -27070,7 +27072,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="254" t="s">
         <v>1</v>
       </c>
@@ -27113,7 +27115,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="254" t="s">
         <v>2</v>
       </c>
@@ -27156,7 +27158,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="254" t="s">
         <v>3</v>
       </c>
@@ -27199,7 +27201,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="254" t="s">
         <v>4</v>
       </c>
@@ -27242,7 +27244,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="254" t="s">
         <v>7</v>
       </c>
@@ -27285,7 +27287,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="254" t="s">
         <v>5</v>
       </c>
@@ -27328,7 +27330,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="254" t="s">
         <v>8</v>
       </c>
@@ -27371,10 +27373,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G15" s="156"/>
     </row>
-    <row r="18" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="162"/>
       <c r="C18" s="162"/>
       <c r="D18" s="162"/>
@@ -27385,7 +27387,7 @@
       <c r="I18" s="162"/>
       <c r="J18" s="162"/>
     </row>
-    <row r="19" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="162"/>
       <c r="C19" s="162"/>
       <c r="D19" s="162"/>
@@ -27396,7 +27398,7 @@
       <c r="I19" s="162"/>
       <c r="J19" s="162"/>
     </row>
-    <row r="20" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="162"/>
       <c r="C20" s="162"/>
       <c r="D20" s="162"/>
@@ -27407,7 +27409,7 @@
       <c r="I20" s="162"/>
       <c r="J20" s="162"/>
     </row>
-    <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="162"/>
       <c r="C21" s="162"/>
       <c r="D21" s="162"/>
@@ -27418,7 +27420,7 @@
       <c r="I21" s="162"/>
       <c r="J21" s="162"/>
     </row>
-    <row r="22" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="162"/>
       <c r="C22" s="162"/>
       <c r="D22" s="162"/>
@@ -27429,7 +27431,7 @@
       <c r="I22" s="162"/>
       <c r="J22" s="162"/>
     </row>
-    <row r="23" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="162"/>
       <c r="C23" s="162"/>
       <c r="D23" s="162"/>
@@ -27440,7 +27442,7 @@
       <c r="I23" s="162"/>
       <c r="J23" s="162"/>
     </row>
-    <row r="24" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="162"/>
       <c r="C24" s="162"/>
       <c r="D24" s="162"/>
@@ -27451,7 +27453,7 @@
       <c r="I24" s="162"/>
       <c r="J24" s="162"/>
     </row>
-    <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="162"/>
       <c r="C25" s="162"/>
       <c r="D25" s="162"/>
@@ -27462,7 +27464,7 @@
       <c r="I25" s="162"/>
       <c r="J25" s="162"/>
     </row>
-    <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="162"/>
       <c r="C26" s="162"/>
       <c r="D26" s="162"/>
@@ -27473,7 +27475,7 @@
       <c r="I26" s="162"/>
       <c r="J26" s="162"/>
     </row>
-    <row r="27" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="162"/>
       <c r="C27" s="162"/>
       <c r="D27" s="162"/>
@@ -27484,7 +27486,7 @@
       <c r="I27" s="162"/>
       <c r="J27" s="162"/>
     </row>
-    <row r="28" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="162"/>
       <c r="C28" s="162"/>
       <c r="D28" s="162"/>
@@ -27495,7 +27497,7 @@
       <c r="I28" s="162"/>
       <c r="J28" s="162"/>
     </row>
-    <row r="29" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="162"/>
       <c r="C29" s="162"/>
       <c r="D29" s="162"/>
@@ -27506,7 +27508,7 @@
       <c r="I29" s="162"/>
       <c r="J29" s="162"/>
     </row>
-    <row r="30" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="162"/>
       <c r="C30" s="162"/>
       <c r="D30" s="162"/>
@@ -27517,7 +27519,7 @@
       <c r="I30" s="162"/>
       <c r="J30" s="162"/>
     </row>
-    <row r="31" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="162"/>
       <c r="C31" s="162"/>
       <c r="D31" s="162"/>
@@ -27528,7 +27530,7 @@
       <c r="I31" s="162"/>
       <c r="J31" s="162"/>
     </row>
-    <row r="32" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="162"/>
       <c r="C32" s="162"/>
       <c r="D32" s="162"/>
@@ -27539,7 +27541,7 @@
       <c r="I32" s="162"/>
       <c r="J32" s="162"/>
     </row>
-    <row r="33" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="162"/>
       <c r="C33" s="162"/>
       <c r="D33" s="162"/>
@@ -27550,7 +27552,7 @@
       <c r="I33" s="162"/>
       <c r="J33" s="162"/>
     </row>
-    <row r="34" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="162"/>
       <c r="C34" s="162"/>
       <c r="D34" s="162"/>
@@ -27561,7 +27563,7 @@
       <c r="I34" s="162"/>
       <c r="J34" s="162"/>
     </row>
-    <row r="35" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="162"/>
       <c r="C35" s="162"/>
       <c r="D35" s="162"/>
@@ -27572,7 +27574,7 @@
       <c r="I35" s="162"/>
       <c r="J35" s="162"/>
     </row>
-    <row r="36" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="162"/>
       <c r="C36" s="162"/>
       <c r="D36" s="162"/>
@@ -27583,7 +27585,7 @@
       <c r="I36" s="162"/>
       <c r="J36" s="162"/>
     </row>
-    <row r="37" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="162"/>
       <c r="C37" s="162"/>
       <c r="D37" s="162"/>
@@ -27594,7 +27596,7 @@
       <c r="I37" s="162"/>
       <c r="J37" s="162"/>
     </row>
-    <row r="38" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="162"/>
       <c r="C38" s="162"/>
       <c r="D38" s="162"/>
@@ -27628,19 +27630,19 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.23046875" style="74" customWidth="1"/>
-    <col min="2" max="6" width="6.23046875" style="74" customWidth="1"/>
-    <col min="7" max="7" width="3.23046875" style="74" customWidth="1"/>
-    <col min="8" max="9" width="16.23046875" style="74" customWidth="1"/>
-    <col min="10" max="11" width="20.69140625" style="74" customWidth="1"/>
-    <col min="12" max="16384" width="11.23046875" style="74"/>
+    <col min="1" max="1" width="8.26953125" style="74" customWidth="1"/>
+    <col min="2" max="6" width="6.26953125" style="74" customWidth="1"/>
+    <col min="7" max="7" width="3.26953125" style="74" customWidth="1"/>
+    <col min="8" max="9" width="16.26953125" style="74" customWidth="1"/>
+    <col min="10" max="11" width="20.7265625" style="74" customWidth="1"/>
+    <col min="12" max="16384" width="11.26953125" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="75" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -27658,7 +27660,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="131"/>
       <c r="B2" s="129" t="s">
         <v>20</v>
@@ -27684,7 +27686,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="131" t="s">
         <v>74</v>
       </c>
@@ -27711,7 +27713,7 @@
       </c>
       <c r="K3" s="271"/>
     </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="131" t="s">
         <v>45</v>
       </c>
@@ -27743,7 +27745,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="131" t="s">
         <v>72</v>
       </c>
@@ -27769,7 +27771,7 @@
       </c>
       <c r="K5" s="271"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="131" t="s">
         <v>76</v>
       </c>
@@ -27795,7 +27797,7 @@
       </c>
       <c r="K6" s="271"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="131" t="s">
         <v>139</v>
       </c>
@@ -27826,7 +27828,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="131" t="s">
         <v>46</v>
       </c>
@@ -27858,7 +27860,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="131" t="s">
         <v>49</v>
       </c>
@@ -27890,7 +27892,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="131" t="s">
         <v>16</v>
       </c>
@@ -27922,7 +27924,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="131" t="s">
         <v>79</v>
       </c>
@@ -27954,7 +27956,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="131" t="s">
         <v>44</v>
       </c>
@@ -27986,7 +27988,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="131" t="s">
         <v>47</v>
       </c>
@@ -28019,7 +28021,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="131" t="s">
         <v>43</v>
       </c>
@@ -28051,7 +28053,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="131" t="s">
         <v>26</v>
       </c>
@@ -28082,7 +28084,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="131" t="s">
         <v>69</v>
       </c>
@@ -28114,7 +28116,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="131" t="s">
         <v>73</v>
       </c>
@@ -28146,7 +28148,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="131"/>
       <c r="B18" s="129"/>
       <c r="C18" s="129"/>
@@ -28162,7 +28164,7 @@
       </c>
       <c r="K18" s="534"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="131"/>
       <c r="B19" s="129"/>
       <c r="C19" s="129"/>
@@ -28174,7 +28176,7 @@
       <c r="J19" s="533"/>
       <c r="K19" s="534"/>
     </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="131"/>
       <c r="B20" s="129"/>
       <c r="C20" s="129"/>
@@ -28186,7 +28188,7 @@
       <c r="J20" s="533"/>
       <c r="K20" s="534"/>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="132"/>
       <c r="B21" s="133"/>
       <c r="C21" s="133"/>
@@ -28198,7 +28200,7 @@
       <c r="J21" s="535"/>
       <c r="K21" s="536"/>
     </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="145" t="s">
         <v>120</v>
       </c>
@@ -28207,7 +28209,7 @@
       <c r="D22" s="145"/>
       <c r="E22" s="145"/>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="117"/>
       <c r="B25" s="117"/>
       <c r="C25" s="117"/>
@@ -28216,7 +28218,7 @@
       <c r="F25" s="118"/>
       <c r="G25" s="117"/>
     </row>
-    <row r="27" spans="1:11" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="74"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
@@ -28226,7 +28228,7 @@
       <c r="I27" s="74"/>
       <c r="J27" s="74"/>
     </row>
-    <row r="28" spans="1:11" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C28" s="74"/>
       <c r="D28" s="74"/>
       <c r="E28" s="74"/>
@@ -28252,14 +28254,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.23046875" style="228" customWidth="1"/>
-    <col min="2" max="16" width="5.23046875" style="201" customWidth="1"/>
-    <col min="17" max="16384" width="8.69140625" style="201"/>
+    <col min="1" max="1" width="12.26953125" style="228" customWidth="1"/>
+    <col min="2" max="16" width="5.26953125" style="201" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="201"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A1" s="221" t="s">
         <v>196</v>
       </c>
@@ -28279,7 +28281,7 @@
       <c r="O1" s="135"/>
       <c r="P1" s="136"/>
     </row>
-    <row r="2" spans="1:16" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A2" s="222"/>
       <c r="B2" s="184" t="s">
         <v>74</v>
@@ -28323,7 +28325,7 @@
       <c r="O2" s="184"/>
       <c r="P2" s="185"/>
     </row>
-    <row r="3" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="223" t="s">
         <v>188</v>
       </c>
@@ -28369,7 +28371,7 @@
       <c r="O3" s="227"/>
       <c r="P3" s="130"/>
     </row>
-    <row r="4" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="223">
         <v>2030</v>
       </c>
@@ -28415,7 +28417,7 @@
       <c r="O4" s="227"/>
       <c r="P4" s="130"/>
     </row>
-    <row r="5" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="223" t="s">
         <v>199</v>
       </c>
@@ -28474,7 +28476,7 @@
       <c r="O5" s="128"/>
       <c r="P5" s="130"/>
     </row>
-    <row r="6" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="223"/>
       <c r="B6" s="128"/>
       <c r="C6" s="128"/>
@@ -28492,7 +28494,7 @@
       <c r="O6" s="128"/>
       <c r="P6" s="130"/>
     </row>
-    <row r="7" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="223"/>
       <c r="B7" s="128"/>
       <c r="C7" s="128"/>
@@ -28510,7 +28512,7 @@
       <c r="O7" s="128"/>
       <c r="P7" s="130"/>
     </row>
-    <row r="8" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="223"/>
       <c r="B8" s="128"/>
       <c r="C8" s="128"/>
@@ -28528,7 +28530,7 @@
       <c r="O8" s="128"/>
       <c r="P8" s="130"/>
     </row>
-    <row r="9" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="223"/>
       <c r="B9" s="128"/>
       <c r="C9" s="128"/>
@@ -28546,7 +28548,7 @@
       <c r="O9" s="128"/>
       <c r="P9" s="130"/>
     </row>
-    <row r="10" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="223"/>
       <c r="B10" s="128"/>
       <c r="C10" s="128"/>
@@ -28564,7 +28566,7 @@
       <c r="O10" s="128"/>
       <c r="P10" s="130"/>
     </row>
-    <row r="11" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="223"/>
       <c r="B11" s="128"/>
       <c r="C11" s="128"/>
@@ -28582,7 +28584,7 @@
       <c r="O11" s="128"/>
       <c r="P11" s="130"/>
     </row>
-    <row r="12" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="223"/>
       <c r="B12" s="128"/>
       <c r="C12" s="128"/>
@@ -28600,7 +28602,7 @@
       <c r="O12" s="128"/>
       <c r="P12" s="130"/>
     </row>
-    <row r="13" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="224"/>
       <c r="B13" s="128"/>
       <c r="C13" s="128"/>
@@ -28618,7 +28620,7 @@
       <c r="O13" s="128"/>
       <c r="P13" s="130"/>
     </row>
-    <row r="14" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="223"/>
       <c r="B14" s="128"/>
       <c r="C14" s="128"/>
@@ -28636,7 +28638,7 @@
       <c r="O14" s="128"/>
       <c r="P14" s="130"/>
     </row>
-    <row r="15" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="225"/>
       <c r="B15" s="128"/>
       <c r="C15" s="128"/>
@@ -28654,7 +28656,7 @@
       <c r="O15" s="128"/>
       <c r="P15" s="218"/>
     </row>
-    <row r="16" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="225"/>
       <c r="B16" s="128"/>
       <c r="C16" s="128"/>
@@ -28672,7 +28674,7 @@
       <c r="O16" s="128"/>
       <c r="P16" s="218"/>
     </row>
-    <row r="17" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="223"/>
       <c r="B17" s="161"/>
       <c r="C17" s="161"/>
@@ -28690,7 +28692,7 @@
       <c r="O17" s="129"/>
       <c r="P17" s="130"/>
     </row>
-    <row r="18" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="223"/>
       <c r="B18" s="161"/>
       <c r="C18" s="161"/>
@@ -28708,7 +28710,7 @@
       <c r="O18" s="161"/>
       <c r="P18" s="130"/>
     </row>
-    <row r="19" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="224"/>
       <c r="B19" s="161"/>
       <c r="C19" s="161"/>
@@ -28726,7 +28728,7 @@
       <c r="O19" s="129"/>
       <c r="P19" s="130"/>
     </row>
-    <row r="20" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="226"/>
       <c r="B20" s="165"/>
       <c r="C20" s="133"/>
@@ -28760,17 +28762,17 @@
       <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.53515625" style="77" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" style="77" customWidth="1"/>
     <col min="3" max="22" width="5" style="77" customWidth="1"/>
-    <col min="23" max="23" width="5.23046875" style="77" customWidth="1"/>
+    <col min="23" max="23" width="5.26953125" style="77" customWidth="1"/>
     <col min="24" max="35" width="5" style="77" customWidth="1"/>
-    <col min="36" max="16384" width="11.23046875" style="77"/>
+    <col min="36" max="16384" width="11.26953125" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="537" t="s">
         <v>124</v>
       </c>
@@ -28809,7 +28811,7 @@
       <c r="AH1" s="537"/>
       <c r="AI1" s="537"/>
     </row>
-    <row r="2" spans="1:37" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="251" t="s">
         <v>214</v>
       </c>
@@ -28917,7 +28919,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>
       <c r="B3" s="131" t="s">
         <v>74</v>
@@ -28997,7 +28999,7 @@
       </c>
       <c r="AJ3" s="538"/>
     </row>
-    <row r="4" spans="1:37" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
       <c r="B4" s="131" t="s">
         <v>45</v>
@@ -29086,7 +29088,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="74"/>
       <c r="B5" s="131" t="s">
         <v>86</v>
@@ -29195,7 +29197,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="74"/>
       <c r="B6" s="131" t="s">
         <v>82</v>
@@ -29304,7 +29306,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="74"/>
       <c r="B7" s="131" t="s">
         <v>72</v>
@@ -29388,7 +29390,7 @@
       </c>
       <c r="AJ7" s="538"/>
     </row>
-    <row r="8" spans="1:37" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="74"/>
       <c r="B8" s="131" t="s">
         <v>76</v>
@@ -29479,7 +29481,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="74"/>
       <c r="B9" s="131" t="s">
         <v>139</v>
@@ -29572,7 +29574,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="74"/>
       <c r="B10" s="131" t="s">
         <v>65</v>
@@ -29681,7 +29683,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="74"/>
       <c r="B11" s="131" t="s">
         <v>64</v>
@@ -29787,7 +29789,7 @@
       </c>
       <c r="AJ11" s="538"/>
     </row>
-    <row r="12" spans="1:37" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="74"/>
       <c r="B12" s="131" t="s">
         <v>69</v>
@@ -29893,7 +29895,7 @@
       </c>
       <c r="AJ12" s="538"/>
     </row>
-    <row r="13" spans="1:37" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="74"/>
       <c r="B13" s="131" t="s">
         <v>71</v>
@@ -29997,7 +29999,7 @@
       </c>
       <c r="AJ13" s="538"/>
     </row>
-    <row r="14" spans="1:37" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="74"/>
       <c r="B14" s="131" t="s">
         <v>46</v>
@@ -30085,7 +30087,7 @@
       </c>
       <c r="AJ14" s="538"/>
     </row>
-    <row r="15" spans="1:37" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="74"/>
       <c r="B15" s="131" t="s">
         <v>49</v>
@@ -30177,7 +30179,7 @@
       </c>
       <c r="AJ15" s="538"/>
     </row>
-    <row r="16" spans="1:37" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="74"/>
       <c r="B16" s="131" t="s">
         <v>16</v>
@@ -30278,7 +30280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="74"/>
       <c r="B17" s="131" t="s">
         <v>79</v>
@@ -30383,7 +30385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="74"/>
       <c r="B18" s="131" t="s">
         <v>81</v>
@@ -30488,7 +30490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="74"/>
       <c r="B19" s="131" t="s">
         <v>78</v>
@@ -30593,7 +30595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="74"/>
       <c r="B20" s="131" t="s">
         <v>67</v>
@@ -30698,7 +30700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="74"/>
       <c r="B21" s="131" t="s">
         <v>85</v>
@@ -30803,7 +30805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="74"/>
       <c r="B22" s="131" t="s">
         <v>84</v>
@@ -30906,7 +30908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="74"/>
       <c r="B23" s="131" t="s">
         <v>44</v>
@@ -30997,7 +30999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="74"/>
       <c r="B24" s="131" t="s">
         <v>47</v>
@@ -31088,7 +31090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="74"/>
       <c r="B25" s="131" t="s">
         <v>43</v>
@@ -31173,7 +31175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="74"/>
       <c r="B26" s="131" t="s">
         <v>68</v>
@@ -31270,7 +31272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="74"/>
       <c r="B27" s="131" t="s">
         <v>80</v>
@@ -31367,7 +31369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="74"/>
       <c r="B28" s="131" t="s">
         <v>26</v>
@@ -31458,7 +31460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="74"/>
       <c r="B29" s="131" t="s">
         <v>157</v>
@@ -31563,7 +31565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="74"/>
       <c r="B30" s="131" t="s">
         <v>158</v>
@@ -31668,7 +31670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="74"/>
       <c r="B31" s="131" t="s">
         <v>159</v>
@@ -31773,7 +31775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="74"/>
       <c r="B32" s="131" t="s">
         <v>160</v>
@@ -31878,7 +31880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="74"/>
       <c r="B33" s="131" t="s">
         <v>83</v>
@@ -31983,7 +31985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="74"/>
       <c r="B34" s="131" t="s">
         <v>77</v>
@@ -32088,7 +32090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="74"/>
       <c r="B35" s="132" t="s">
         <v>75</v>
@@ -32221,15 +32223,15 @@
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.53515625" style="76" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.23046875" style="76" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" style="76" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="5" style="76" customWidth="1"/>
-    <col min="33" max="16384" width="11.23046875" style="76"/>
+    <col min="33" max="16384" width="11.26953125" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="78" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="78" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="539" t="s">
         <v>116</v>
       </c>
@@ -32265,7 +32267,7 @@
       <c r="AE1" s="540"/>
       <c r="AF1" s="541"/>
     </row>
-    <row r="2" spans="1:33" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="147"/>
       <c r="B2" s="146" t="s">
         <v>66</v>
@@ -32364,7 +32366,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="148" t="s">
         <v>87</v>
       </c>
@@ -32463,7 +32465,7 @@
       </c>
       <c r="AG3" s="538"/>
     </row>
-    <row r="4" spans="1:33" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="148" t="s">
         <v>88</v>
       </c>
@@ -32562,7 +32564,7 @@
       </c>
       <c r="AG4" s="538"/>
     </row>
-    <row r="5" spans="1:33" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="148" t="s">
         <v>89</v>
       </c>
@@ -32661,7 +32663,7 @@
       </c>
       <c r="AG5" s="538"/>
     </row>
-    <row r="6" spans="1:33" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="148" t="s">
         <v>90</v>
       </c>
@@ -32760,7 +32762,7 @@
       </c>
       <c r="AG6" s="538"/>
     </row>
-    <row r="7" spans="1:33" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="148" t="s">
         <v>91</v>
       </c>
@@ -32859,7 +32861,7 @@
       </c>
       <c r="AG7" s="538"/>
     </row>
-    <row r="8" spans="1:33" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="148" t="s">
         <v>92</v>
       </c>
@@ -32958,7 +32960,7 @@
       </c>
       <c r="AG8" s="538"/>
     </row>
-    <row r="9" spans="1:33" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="148" t="s">
         <v>93</v>
       </c>
@@ -33057,7 +33059,7 @@
       </c>
       <c r="AG9" s="538"/>
     </row>
-    <row r="10" spans="1:33" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="148" t="s">
         <v>94</v>
       </c>
@@ -33156,7 +33158,7 @@
       </c>
       <c r="AG10" s="538"/>
     </row>
-    <row r="11" spans="1:33" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="148" t="s">
         <v>56</v>
       </c>
@@ -33255,7 +33257,7 @@
       </c>
       <c r="AG11" s="538"/>
     </row>
-    <row r="12" spans="1:33" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="148" t="s">
         <v>95</v>
       </c>
@@ -33354,7 +33356,7 @@
       </c>
       <c r="AG12" s="538"/>
     </row>
-    <row r="13" spans="1:33" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="148" t="s">
         <v>96</v>
       </c>
@@ -33453,7 +33455,7 @@
       </c>
       <c r="AG13" s="538"/>
     </row>
-    <row r="14" spans="1:33" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="148" t="s">
         <v>97</v>
       </c>
@@ -33552,7 +33554,7 @@
       </c>
       <c r="AG14" s="538"/>
     </row>
-    <row r="15" spans="1:33" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="148" t="s">
         <v>98</v>
       </c>
@@ -33651,7 +33653,7 @@
       </c>
       <c r="AG15" s="538"/>
     </row>
-    <row r="16" spans="1:33" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="148" t="s">
         <v>99</v>
       </c>
@@ -33749,7 +33751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="148" t="s">
         <v>100</v>
       </c>
@@ -33847,7 +33849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="148" t="s">
         <v>101</v>
       </c>
@@ -33945,7 +33947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="148" t="s">
         <v>102</v>
       </c>
@@ -34043,7 +34045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="148" t="s">
         <v>103</v>
       </c>
@@ -34139,7 +34141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="148" t="s">
         <v>104</v>
       </c>
@@ -34237,7 +34239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="148" t="s">
         <v>105</v>
       </c>
@@ -34335,7 +34337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="148" t="s">
         <v>106</v>
       </c>
@@ -34433,7 +34435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="148" t="s">
         <v>107</v>
       </c>
@@ -34531,7 +34533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="148" t="s">
         <v>108</v>
       </c>
@@ -34629,7 +34631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="148" t="s">
         <v>109</v>
       </c>
@@ -34727,7 +34729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="148" t="s">
         <v>110</v>
       </c>
@@ -34825,7 +34827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="148" t="s">
         <v>111</v>
       </c>
@@ -34923,7 +34925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="148" t="s">
         <v>112</v>
       </c>
@@ -35021,7 +35023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="148" t="s">
         <v>113</v>
       </c>
@@ -35119,7 +35121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="148" t="s">
         <v>114</v>
       </c>
@@ -35217,7 +35219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="149" t="s">
         <v>115</v>
       </c>
@@ -35338,13 +35340,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.23046875" style="210" customWidth="1"/>
-    <col min="2" max="16384" width="11.23046875" style="210"/>
+    <col min="1" max="1" width="2.26953125" style="210" customWidth="1"/>
+    <col min="2" max="16384" width="11.26953125" style="210"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B2" s="205" t="s">
         <v>161</v>
       </c>
@@ -35372,7 +35374,7 @@
       </c>
       <c r="K2" s="207"/>
     </row>
-    <row r="3" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="213" t="s">
         <v>165</v>
       </c>
@@ -35398,7 +35400,7 @@
       <c r="J3" s="215"/>
       <c r="K3" s="214"/>
     </row>
-    <row r="4" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B4" s="209"/>
       <c r="C4" s="216"/>
       <c r="D4" s="216"/>
@@ -35412,7 +35414,7 @@
       </c>
       <c r="K4" s="212"/>
     </row>
-    <row r="5" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="137" t="s">
         <v>168</v>
       </c>
@@ -35442,7 +35444,7 @@
       <c r="J5" s="202"/>
       <c r="K5" s="212"/>
     </row>
-    <row r="6" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="137" t="s">
         <v>169</v>
       </c>
@@ -35472,7 +35474,7 @@
       <c r="J6" s="202"/>
       <c r="K6" s="212"/>
     </row>
-    <row r="7" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B7" s="137" t="s">
         <v>170</v>
       </c>
@@ -35502,7 +35504,7 @@
       <c r="J7" s="202"/>
       <c r="K7" s="212"/>
     </row>
-    <row r="8" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B8" s="137" t="s">
         <v>171</v>
       </c>
@@ -35532,7 +35534,7 @@
       <c r="J8" s="202"/>
       <c r="K8" s="212"/>
     </row>
-    <row r="9" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="137"/>
       <c r="C9" s="202"/>
       <c r="D9" s="202"/>
@@ -35544,7 +35546,7 @@
       <c r="J9" s="202"/>
       <c r="K9" s="212"/>
     </row>
-    <row r="10" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="137" t="s">
         <v>172</v>
       </c>
@@ -35576,7 +35578,7 @@
       <c r="J10" s="202"/>
       <c r="K10" s="212"/>
     </row>
-    <row r="11" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="137" t="s">
         <v>173</v>
       </c>
@@ -35608,7 +35610,7 @@
       <c r="J11" s="202"/>
       <c r="K11" s="212"/>
     </row>
-    <row r="12" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" s="137"/>
       <c r="C12" s="202"/>
       <c r="D12" s="202"/>
@@ -35620,7 +35622,7 @@
       <c r="J12" s="202"/>
       <c r="K12" s="212"/>
     </row>
-    <row r="13" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="137" t="s">
         <v>174</v>
       </c>
@@ -35652,7 +35654,7 @@
       <c r="J13" s="202"/>
       <c r="K13" s="212"/>
     </row>
-    <row r="14" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" s="137" t="s">
         <v>175</v>
       </c>
@@ -35684,7 +35686,7 @@
       <c r="J14" s="202"/>
       <c r="K14" s="212"/>
     </row>
-    <row r="15" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" s="137"/>
       <c r="C15" s="202"/>
       <c r="D15" s="202"/>
@@ -35696,7 +35698,7 @@
       <c r="J15" s="202"/>
       <c r="K15" s="212"/>
     </row>
-    <row r="16" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B16" s="137" t="s">
         <v>176</v>
       </c>
@@ -35726,7 +35728,7 @@
       <c r="J16" s="202"/>
       <c r="K16" s="212"/>
     </row>
-    <row r="17" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B17" s="137"/>
       <c r="C17" s="202"/>
       <c r="D17" s="202"/>
@@ -35738,7 +35740,7 @@
       <c r="J17" s="202"/>
       <c r="K17" s="212"/>
     </row>
-    <row r="18" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B18" s="137"/>
       <c r="C18" s="202"/>
       <c r="D18" s="202"/>
@@ -35750,7 +35752,7 @@
       <c r="J18" s="202"/>
       <c r="K18" s="212"/>
     </row>
-    <row r="19" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B19" s="213"/>
       <c r="C19" s="215" t="s">
         <v>178</v>
@@ -35776,7 +35778,7 @@
       <c r="J19" s="215"/>
       <c r="K19" s="217"/>
     </row>
-    <row r="20" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B20" s="213" t="s">
         <v>243</v>
       </c>
@@ -35798,7 +35800,7 @@
       <c r="J20" s="215"/>
       <c r="K20" s="217"/>
     </row>
-    <row r="21" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B21" s="137" t="s">
         <v>174</v>
       </c>
@@ -35826,7 +35828,7 @@
       <c r="J21" s="202"/>
       <c r="K21" s="212"/>
     </row>
-    <row r="22" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B22" s="137" t="s">
         <v>184</v>
       </c>
@@ -35854,7 +35856,7 @@
       <c r="J22" s="202"/>
       <c r="K22" s="212"/>
     </row>
-    <row r="23" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B23" s="137" t="s">
         <v>185</v>
       </c>
@@ -35882,7 +35884,7 @@
       <c r="J23" s="202"/>
       <c r="K23" s="212"/>
     </row>
-    <row r="24" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B24" s="137" t="s">
         <v>186</v>
       </c>
@@ -35910,7 +35912,7 @@
       <c r="J24" s="202"/>
       <c r="K24" s="212"/>
     </row>
-    <row r="25" spans="2:11" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B25" s="138" t="s">
         <v>187</v>
       </c>
